--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
@@ -268,7 +268,7 @@
     <t>3079.2 (±381.2)</t>
   </si>
   <si>
-    <t>8251.2 (±444.2)</t>
+    <t>8250.2 (±444.2)</t>
   </si>
   <si>
     <t>2641.4 (±452.1)</t>
@@ -436,7 +436,7 @@
     <t>1096.6(±135.8)</t>
   </si>
   <si>
-    <t>2021.5(±108.8)</t>
+    <t>2021.2(±108.8)</t>
   </si>
   <si>
     <t>1196.2(±204.7)</t>
@@ -607,7 +607,7 @@
     <t>3893.0 (±406.8)</t>
   </si>
   <si>
-    <t>6197.4 (±289.3)</t>
+    <t>6198.4 (±289.3)</t>
   </si>
   <si>
     <t>2558.4 (±318.8)</t>
@@ -616,7 +616,7 @@
     <t>1608.2 (±111.7)</t>
   </si>
   <si>
-    <t>4591.8 (±258.7)</t>
+    <t>4590.8 (±258.7)</t>
   </si>
   <si>
     <t>1019.4 (±285.9)</t>
@@ -676,7 +676,7 @@
     <t>1933.8 (±175.7)</t>
   </si>
   <si>
-    <t>1235.0 (±98.5)</t>
+    <t>1236.0 (±98.5)</t>
   </si>
   <si>
     <t>1229.0 (±96.2)</t>
@@ -700,7 +700,7 @@
     <t>21.5% (±1.8%)</t>
   </si>
   <si>
-    <t>30.3% (±2.2%)</t>
+    <t>30.2% (±2.1%)</t>
   </si>
   <si>
     <t>10.9% (±3.3%)</t>
@@ -775,7 +775,7 @@
     <t>2407.1(±251.5)</t>
   </si>
   <si>
-    <t>2595.3(±121.2)</t>
+    <t>2595.8(±121.1)</t>
   </si>
   <si>
     <t>2171.9(±270.6)</t>
@@ -784,7 +784,7 @@
     <t>2252.0(±156.4)</t>
   </si>
   <si>
-    <t>3155.0(±177.7)</t>
+    <t>3154.3(±177.7)</t>
   </si>
   <si>
     <t>485.4(±136.2)</t>
@@ -844,7 +844,7 @@
     <t>1588.3(±144.3)</t>
   </si>
   <si>
-    <t>2257.0(±180.0)</t>
+    <t>2258.8(±180.0)</t>
   </si>
   <si>
     <t>3374.3(±264.2)</t>
@@ -955,7 +955,7 @@
     <t>3626.2 (±214.7)</t>
   </si>
   <si>
-    <t>10026.8 (±672.3)</t>
+    <t>10025.8 (±672.3)</t>
   </si>
   <si>
     <t>1363.0 (±374.9)</t>
@@ -1015,7 +1015,7 @@
     <t>3446.0 (±459.0)</t>
   </si>
   <si>
-    <t>2732.2 (±293.1)</t>
+    <t>2733.2 (±293.1)</t>
   </si>
   <si>
     <t>3059.6 (±177.1)</t>
@@ -1120,7 +1120,7 @@
     <t>1666.2(±98.7)</t>
   </si>
   <si>
-    <t>2316.2(±155.3)</t>
+    <t>2315.9(±155.3)</t>
   </si>
   <si>
     <t>256.2(±70.5)</t>
@@ -1180,7 +1180,7 @@
     <t>1080.1(±143.9)</t>
   </si>
   <si>
-    <t>1522.0(±163.3)</t>
+    <t>1522.6(±163.2)</t>
   </si>
   <si>
     <t>2755.6(±159.5)</t>
@@ -1760,7 +1760,7 @@
         <v>29794</v>
       </c>
       <c r="H3">
-        <v>38649</v>
+        <v>38648</v>
       </c>
       <c r="I3">
         <v>30397.8</v>
@@ -1781,7 +1781,7 @@
         <v>30842</v>
       </c>
       <c r="O3">
-        <v>8251.200000000001</v>
+        <v>8250.200000000001</v>
       </c>
       <c r="P3">
         <v>444.2</v>
@@ -1805,7 +1805,7 @@
         <v>408179</v>
       </c>
       <c r="W3">
-        <v>2021.5</v>
+        <v>2021.2</v>
       </c>
       <c r="X3">
         <v>108.8</v>
@@ -4006,7 +4006,7 @@
         <v>20468</v>
       </c>
       <c r="H3">
-        <v>26747</v>
+        <v>26748</v>
       </c>
       <c r="I3">
         <v>20549.60000000001</v>
@@ -4027,7 +4027,7 @@
         <v>20838.90000000001</v>
       </c>
       <c r="O3">
-        <v>6197.4</v>
+        <v>6198.4</v>
       </c>
       <c r="P3">
         <v>289.3</v>
@@ -4051,10 +4051,10 @@
         <v>238790</v>
       </c>
       <c r="W3">
-        <v>2595.3</v>
+        <v>2595.8</v>
       </c>
       <c r="X3">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4237,7 +4237,7 @@
         <v>15270</v>
       </c>
       <c r="H6">
-        <v>19770</v>
+        <v>19769</v>
       </c>
       <c r="I6">
         <v>15178.2</v>
@@ -4258,16 +4258,16 @@
         <v>15436.9</v>
       </c>
       <c r="O6">
-        <v>4591.8</v>
+        <v>4590.8</v>
       </c>
       <c r="P6">
         <v>258.7</v>
       </c>
       <c r="Q6">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="R6">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="s">
         <v>171</v>
@@ -4282,7 +4282,7 @@
         <v>145542</v>
       </c>
       <c r="W6">
-        <v>3155</v>
+        <v>3154.3</v>
       </c>
       <c r="X6">
         <v>177.7</v>
@@ -5777,7 +5777,7 @@
         <v>5580</v>
       </c>
       <c r="H26">
-        <v>7066</v>
+        <v>7067</v>
       </c>
       <c r="I26">
         <v>5830.999999999998</v>
@@ -5798,7 +5798,7 @@
         <v>5929.499999999998</v>
       </c>
       <c r="O26">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P26">
         <v>98.5</v>
@@ -5822,7 +5822,7 @@
         <v>54719</v>
       </c>
       <c r="W26">
-        <v>2257</v>
+        <v>2258.8</v>
       </c>
       <c r="X26">
         <v>180</v>
@@ -6483,7 +6483,7 @@
         <v>40578</v>
       </c>
       <c r="H6">
-        <v>50986</v>
+        <v>50985</v>
       </c>
       <c r="I6">
         <v>40959.20000000002</v>
@@ -6504,7 +6504,7 @@
         <v>41631.50000000002</v>
       </c>
       <c r="O6">
-        <v>10026.8</v>
+        <v>10025.8</v>
       </c>
       <c r="P6">
         <v>672.3</v>
@@ -6528,7 +6528,7 @@
         <v>432907</v>
       </c>
       <c r="W6">
-        <v>2316.2</v>
+        <v>2315.9</v>
       </c>
       <c r="X6">
         <v>155.3</v>
@@ -8023,7 +8023,7 @@
         <v>16409</v>
       </c>
       <c r="H26">
-        <v>19896</v>
+        <v>19897</v>
       </c>
       <c r="I26">
         <v>17163.79999999999</v>
@@ -8044,7 +8044,7 @@
         <v>17456.89999999999</v>
       </c>
       <c r="O26">
-        <v>2732.2</v>
+        <v>2733.2</v>
       </c>
       <c r="P26">
         <v>293.1</v>
@@ -8068,10 +8068,10 @@
         <v>179513</v>
       </c>
       <c r="W26">
-        <v>1522</v>
+        <v>1522.6</v>
       </c>
       <c r="X26">
-        <v>163.3</v>
+        <v>163.2</v>
       </c>
       <c r="Y26" t="s">
         <v>387</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
@@ -235,7 +235,7 @@
     <t>1242.0 (±46.5)</t>
   </si>
   <si>
-    <t>39743.6 (±314.1)</t>
+    <t>39738.8 (±313.7)</t>
   </si>
   <si>
     <t>11346.2 (±177.4)</t>
@@ -268,7 +268,7 @@
     <t>3079.2 (±381.2)</t>
   </si>
   <si>
-    <t>8250.2 (±444.2)</t>
+    <t>8131.2 (±444.2)</t>
   </si>
   <si>
     <t>2641.4 (±452.1)</t>
@@ -277,19 +277,19 @@
     <t>2018.0 (±135.2)</t>
   </si>
   <si>
-    <t>5435.0 (±474.0)</t>
+    <t>5437.0 (±474.0)</t>
   </si>
   <si>
     <t>343.6 (±111.0)</t>
   </si>
   <si>
-    <t>453.0 (±87.0)</t>
+    <t>455.0 (±87.0)</t>
   </si>
   <si>
     <t>719.0 (±213.3)</t>
   </si>
   <si>
-    <t>26996.6 (±1669.3)</t>
+    <t>27019.6 (±1669.3)</t>
   </si>
   <si>
     <t>3875.0 (±837.8)</t>
@@ -301,7 +301,7 @@
     <t>-4.8 (±12.1)</t>
   </si>
   <si>
-    <t>735.8 (±116.6)</t>
+    <t>781.8 (±116.6)</t>
   </si>
   <si>
     <t>13.0 (±6.7)</t>
@@ -313,16 +313,16 @@
     <t>190.8 (±38.5)</t>
   </si>
   <si>
-    <t>174.4 (±14.2)</t>
-  </si>
-  <si>
-    <t>215.0 (±46.5)</t>
-  </si>
-  <si>
-    <t>5940.4 (±314.1)</t>
-  </si>
-  <si>
-    <t>-267.2 (±177.4)</t>
+    <t>177.4 (±14.2)</t>
+  </si>
+  <si>
+    <t>191.0 (±46.5)</t>
+  </si>
+  <si>
+    <t>5956.2 (±313.7)</t>
+  </si>
+  <si>
+    <t>-270.2 (±177.4)</t>
   </si>
   <si>
     <t>23331.4 (±2254.5)</t>
@@ -331,19 +331,19 @@
     <t>6336.6 (±707.2)</t>
   </si>
   <si>
-    <t>9472.4 (±1037.8)</t>
+    <t>9495.4 (±1037.8)</t>
   </si>
   <si>
     <t>1512.2 (±302.3)</t>
   </si>
   <si>
-    <t>1497.2 (±199.3)</t>
-  </si>
-  <si>
-    <t>1830.6 (±110.7)</t>
-  </si>
-  <si>
-    <t>30974.0 (±731.0)</t>
+    <t>1498.2 (±199.3)</t>
+  </si>
+  <si>
+    <t>1841.6 (±110.7)</t>
+  </si>
+  <si>
+    <t>30137.0 (±731.0)</t>
   </si>
   <si>
     <t>2371.2 (±490.1)</t>
@@ -352,7 +352,7 @@
     <t>13.4% (±1.9%)</t>
   </si>
   <si>
-    <t>27.1% (±1.8%)</t>
+    <t>26.7% (±1.8%)</t>
   </si>
   <si>
     <t>11.5% (±2.1%)</t>
@@ -367,13 +367,13 @@
     <t>2.7% (±0.9%)</t>
   </si>
   <si>
-    <t>10.8% (±2.2%)</t>
+    <t>10.9% (±2.3%)</t>
   </si>
   <si>
     <t>4.9% (±1.5%)</t>
   </si>
   <si>
-    <t>15.4% (±1.0%)</t>
+    <t>15.5% (±1.1%)</t>
   </si>
   <si>
     <t>11.2% (±2.6%)</t>
@@ -385,7 +385,7 @@
     <t>-0.8% (±2.1%)</t>
   </si>
   <si>
-    <t>10.4% (±1.8%)</t>
+    <t>11.0% (±1.8%)</t>
   </si>
   <si>
     <t>19.1% (±10.7%)</t>
@@ -397,13 +397,13 @@
     <t>17.7% (±4.0%)</t>
   </si>
   <si>
-    <t>20.9% (±2.0%)</t>
-  </si>
-  <si>
-    <t>17.3% (±4.2%)</t>
-  </si>
-  <si>
-    <t>14.9% (±0.9%)</t>
+    <t>21.3% (±2.1%)</t>
+  </si>
+  <si>
+    <t>15.4% (±4.2%)</t>
+  </si>
+  <si>
+    <t>15.0% (±0.9%)</t>
   </si>
   <si>
     <t>-2.4% (±1.5%)</t>
@@ -415,7 +415,7 @@
     <t>20.9% (±2.7%)</t>
   </si>
   <si>
-    <t>17.4% (±2.2%)</t>
+    <t>17.5% (±2.2%)</t>
   </si>
   <si>
     <t>7.1% (±1.5%)</t>
@@ -424,10 +424,10 @@
     <t>13.2% (±1.9%)</t>
   </si>
   <si>
-    <t>33.4% (±2.7%)</t>
-  </si>
-  <si>
-    <t>25.5% (±0.7%)</t>
+    <t>33.6% (±2.7%)</t>
+  </si>
+  <si>
+    <t>24.9% (±0.8%)</t>
   </si>
   <si>
     <t>9.4% (±2.1%)</t>
@@ -436,7 +436,7 @@
     <t>1096.6(±135.8)</t>
   </si>
   <si>
-    <t>2021.2(±108.8)</t>
+    <t>1992.1(±108.8)</t>
   </si>
   <si>
     <t>1196.2(±204.7)</t>
@@ -445,19 +445,19 @@
     <t>1380.1(±92.5)</t>
   </si>
   <si>
-    <t>1891.3(±165.0)</t>
+    <t>1892.0(±165.0)</t>
   </si>
   <si>
     <t>106.7(±34.5)</t>
   </si>
   <si>
-    <t>814.7(±156.5)</t>
+    <t>818.3(±156.5)</t>
   </si>
   <si>
     <t>369.4(±109.5)</t>
   </si>
   <si>
-    <t>1040.2(±64.3)</t>
+    <t>1041.1(±64.3)</t>
   </si>
   <si>
     <t>865.4(±187.1)</t>
@@ -469,7 +469,7 @@
     <t>-66.9(±168.7)</t>
   </si>
   <si>
-    <t>912.2(±144.6)</t>
+    <t>969.3(±144.5)</t>
   </si>
   <si>
     <t>703.1(±362.3)</t>
@@ -481,16 +481,16 @@
     <t>1254.7(±253.2)</t>
   </si>
   <si>
-    <t>1353.9(±110.3)</t>
-  </si>
-  <si>
-    <t>1767.2(±382.2)</t>
-  </si>
-  <si>
-    <t>1210.2(±64.0)</t>
-  </si>
-  <si>
-    <t>-192.9(±128.1)</t>
+    <t>1377.2(±110.3)</t>
+  </si>
+  <si>
+    <t>1569.9(±382.3)</t>
+  </si>
+  <si>
+    <t>1213.4(±64.0)</t>
+  </si>
+  <si>
+    <t>-195.1(±128.1)</t>
   </si>
   <si>
     <t>2036.7(±196.8)</t>
@@ -499,19 +499,19 @@
     <t>1492.5(±166.5)</t>
   </si>
   <si>
-    <t>1605.8(±176.0)</t>
+    <t>1609.7(±176.0)</t>
   </si>
   <si>
     <t>766.5(±153.2)</t>
   </si>
   <si>
-    <t>1199.7(±159.7)</t>
-  </si>
-  <si>
-    <t>2453.5(±148.4)</t>
-  </si>
-  <si>
-    <t>1709.0(±40.4)</t>
+    <t>1200.5(±159.7)</t>
+  </si>
+  <si>
+    <t>2468.3(±148.3)</t>
+  </si>
+  <si>
+    <t>1662.8(±40.4)</t>
   </si>
   <si>
     <t>754.1(±155.8)</t>
@@ -574,7 +574,7 @@
     <t>858.6 (±35.0)</t>
   </si>
   <si>
-    <t>27725.2 (±810.3)</t>
+    <t>27721.0 (±810.3)</t>
   </si>
   <si>
     <t>7846.8 (±97.3)</t>
@@ -607,7 +607,7 @@
     <t>3893.0 (±406.8)</t>
   </si>
   <si>
-    <t>6198.4 (±289.3)</t>
+    <t>6140.4 (±289.3)</t>
   </si>
   <si>
     <t>2558.4 (±318.8)</t>
@@ -616,19 +616,19 @@
     <t>1608.2 (±111.7)</t>
   </si>
   <si>
-    <t>4590.8 (±258.7)</t>
+    <t>4591.8 (±258.7)</t>
   </si>
   <si>
     <t>1019.4 (±285.9)</t>
   </si>
   <si>
-    <t>268.8 (±64.3)</t>
+    <t>270.8 (±64.3)</t>
   </si>
   <si>
     <t>900.6 (±228.4)</t>
   </si>
   <si>
-    <t>21983.2 (±1234.7)</t>
+    <t>22004.2 (±1234.7)</t>
   </si>
   <si>
     <t>2910.0 (±626.5)</t>
@@ -640,7 +640,7 @@
     <t>-35.0 (±21.3)</t>
   </si>
   <si>
-    <t>394.2 (±81.6)</t>
+    <t>416.2 (±81.6)</t>
   </si>
   <si>
     <t>28.0 (±5.6)</t>
@@ -655,13 +655,13 @@
     <t>142.0 (±26.8)</t>
   </si>
   <si>
-    <t>239.4 (±35.0)</t>
-  </si>
-  <si>
-    <t>7444.8 (±810.3)</t>
-  </si>
-  <si>
-    <t>146.2 (±97.3)</t>
+    <t>219.4 (±35.0)</t>
+  </si>
+  <si>
+    <t>7461.0 (±810.3)</t>
+  </si>
+  <si>
+    <t>141.2 (±97.3)</t>
   </si>
   <si>
     <t>18468.4 (±987.7)</t>
@@ -670,7 +670,7 @@
     <t>4220.6 (±613.3)</t>
   </si>
   <si>
-    <t>8647.2 (±516.5)</t>
+    <t>8665.2 (±516.5)</t>
   </si>
   <si>
     <t>1933.8 (±175.7)</t>
@@ -679,10 +679,10 @@
     <t>1236.0 (±98.5)</t>
   </si>
   <si>
-    <t>1229.0 (±96.2)</t>
-  </si>
-  <si>
-    <t>23919.0 (±651.6)</t>
+    <t>1232.0 (±96.2)</t>
+  </si>
+  <si>
+    <t>22667.0 (±651.6)</t>
   </si>
   <si>
     <t>3224.2 (±150.2)</t>
@@ -691,7 +691,7 @@
     <t>27.7% (±3.6%)</t>
   </si>
   <si>
-    <t>30.2% (±1.8%)</t>
+    <t>29.9% (±1.8%)</t>
   </si>
   <si>
     <t>17.4% (±2.5%)</t>
@@ -700,19 +700,19 @@
     <t>21.5% (±1.8%)</t>
   </si>
   <si>
-    <t>30.2% (±2.1%)</t>
+    <t>30.3% (±2.2%)</t>
   </si>
   <si>
     <t>10.9% (±3.3%)</t>
   </si>
   <si>
-    <t>15.0% (±4.0%)</t>
+    <t>15.2% (±4.0%)</t>
   </si>
   <si>
     <t>9.6% (±2.6%)</t>
   </si>
   <si>
-    <t>18.5% (±1.2%)</t>
+    <t>18.6% (±1.3%)</t>
   </si>
   <si>
     <t>11.3% (±2.7%)</t>
@@ -724,7 +724,7 @@
     <t>-7.4% (±3.9%)</t>
   </si>
   <si>
-    <t>13.7% (±3.2%)</t>
+    <t>14.4% (±3.1%)</t>
   </si>
   <si>
     <t>66.7% (±19.6%)</t>
@@ -739,13 +739,13 @@
     <t>24.0% (±5.4%)</t>
   </si>
   <si>
-    <t>27.9% (±5.0%)</t>
-  </si>
-  <si>
-    <t>26.9% (±3.7%)</t>
-  </si>
-  <si>
-    <t>1.9% (±1.3%)</t>
+    <t>25.6% (±5.0%)</t>
+  </si>
+  <si>
+    <t>26.9% (±3.6%)</t>
+  </si>
+  <si>
+    <t>1.8% (±1.2%)</t>
   </si>
   <si>
     <t>37.2% (±2.7%)</t>
@@ -754,7 +754,7 @@
     <t>20.2% (±3.5%)</t>
   </si>
   <si>
-    <t>25.3% (±1.8%)</t>
+    <t>25.4% (±1.9%)</t>
   </si>
   <si>
     <t>13.8% (±1.4%)</t>
@@ -763,10 +763,10 @@
     <t>21.2% (±2.0%)</t>
   </si>
   <si>
-    <t>39.6% (±4.2%)</t>
-  </si>
-  <si>
-    <t>27.3% (±0.9%)</t>
+    <t>39.7% (±4.2%)</t>
+  </si>
+  <si>
+    <t>25.9% (±0.9%)</t>
   </si>
   <si>
     <t>17.4% (±0.9%)</t>
@@ -775,7 +775,7 @@
     <t>2407.1(±251.5)</t>
   </si>
   <si>
-    <t>2595.8(±121.1)</t>
+    <t>2571.5(±121.1)</t>
   </si>
   <si>
     <t>2171.9(±270.6)</t>
@@ -784,19 +784,19 @@
     <t>2252.0(±156.4)</t>
   </si>
   <si>
-    <t>3154.3(±177.7)</t>
+    <t>3155.0(±177.7)</t>
   </si>
   <si>
     <t>485.4(±136.2)</t>
   </si>
   <si>
-    <t>1406.1(±336.3)</t>
+    <t>1416.5(±336.4)</t>
   </si>
   <si>
     <t>833.5(±211.3)</t>
   </si>
   <si>
-    <t>1529.7(±85.9)</t>
+    <t>1531.2(±85.9)</t>
   </si>
   <si>
     <t>930.7(±200.4)</t>
@@ -808,7 +808,7 @@
     <t>-665.5(±405.0)</t>
   </si>
   <si>
-    <t>1467.9(±303.9)</t>
+    <t>1549.9(±303.8)</t>
   </si>
   <si>
     <t>2511.2(±502.3)</t>
@@ -823,13 +823,13 @@
     <t>1799.3(±339.6)</t>
   </si>
   <si>
-    <t>2965.4(±433.6)</t>
-  </si>
-  <si>
-    <t>2417.4(±263.1)</t>
-  </si>
-  <si>
-    <t>167.1(±111.2)</t>
+    <t>2717.7(±433.5)</t>
+  </si>
+  <si>
+    <t>2422.7(±263.1)</t>
+  </si>
+  <si>
+    <t>161.4(±111.2)</t>
   </si>
   <si>
     <t>3587.4(±191.8)</t>
@@ -838,7 +838,7 @@
     <t>1781.7(±258.9)</t>
   </si>
   <si>
-    <t>2731.9(±163.2)</t>
+    <t>2737.6(±163.2)</t>
   </si>
   <si>
     <t>1588.3(±144.3)</t>
@@ -847,10 +847,10 @@
     <t>2258.8(±180.0)</t>
   </si>
   <si>
-    <t>3374.3(±264.2)</t>
-  </si>
-  <si>
-    <t>2238.5(±61.0)</t>
+    <t>3382.6(±264.1)</t>
+  </si>
+  <si>
+    <t>2121.4(±61.0)</t>
   </si>
   <si>
     <t>1552.5(±72.3)</t>
@@ -913,7 +913,7 @@
     <t>2100.6 (±72.2)</t>
   </si>
   <si>
-    <t>67468.8 (±1081.3)</t>
+    <t>67459.6 (±1081.2)</t>
   </si>
   <si>
     <t>19193.0 (±231.8)</t>
@@ -946,7 +946,7 @@
     <t>6972.2 (±631.5)</t>
   </si>
   <si>
-    <t>14448.6 (±653.5)</t>
+    <t>14271.6 (±653.5)</t>
   </si>
   <si>
     <t>5199.8 (±757.3)</t>
@@ -955,19 +955,19 @@
     <t>3626.2 (±214.7)</t>
   </si>
   <si>
-    <t>10025.8 (±672.3)</t>
+    <t>10028.8 (±672.3)</t>
   </si>
   <si>
     <t>1363.0 (±374.9)</t>
   </si>
   <si>
-    <t>721.8 (±148.8)</t>
+    <t>725.8 (±148.8)</t>
   </si>
   <si>
     <t>1619.6 (±342.6)</t>
   </si>
   <si>
-    <t>48979.8 (±2877.7)</t>
+    <t>49023.8 (±2877.7)</t>
   </si>
   <si>
     <t>6785.0 (±1434.6)</t>
@@ -979,7 +979,7 @@
     <t>-39.8 (±25.5)</t>
   </si>
   <si>
-    <t>1130.0 (±175.6)</t>
+    <t>1198.0 (±175.6)</t>
   </si>
   <si>
     <t>41.0 (±8.9)</t>
@@ -991,16 +991,16 @@
     <t>378.8 (±63.3)</t>
   </si>
   <si>
-    <t>316.4 (±37.1)</t>
-  </si>
-  <si>
-    <t>454.4 (±72.2)</t>
-  </si>
-  <si>
-    <t>13385.2 (±1081.3)</t>
-  </si>
-  <si>
-    <t>-121.0 (±231.8)</t>
+    <t>319.4 (±37.1)</t>
+  </si>
+  <si>
+    <t>410.4 (±72.2)</t>
+  </si>
+  <si>
+    <t>13417.4 (±1081.2)</t>
+  </si>
+  <si>
+    <t>-129.0 (±231.8)</t>
   </si>
   <si>
     <t>41799.8 (±3229.3)</t>
@@ -1009,19 +1009,19 @@
     <t>10557.2 (±1289.2)</t>
   </si>
   <si>
-    <t>18119.6 (±1494.8)</t>
+    <t>18160.6 (±1494.8)</t>
   </si>
   <si>
     <t>3446.0 (±459.0)</t>
   </si>
   <si>
-    <t>2733.2 (±293.1)</t>
-  </si>
-  <si>
-    <t>3059.6 (±177.1)</t>
-  </si>
-  <si>
-    <t>54899.0 (±1249.5)</t>
+    <t>2734.2 (±293.1)</t>
+  </si>
+  <si>
+    <t>3073.6 (±177.1)</t>
+  </si>
+  <si>
+    <t>52804.0 (±1249.5)</t>
   </si>
   <si>
     <t>5595.4 (±603.4)</t>
@@ -1030,7 +1030,7 @@
     <t>18.8% (±2.0%)</t>
   </si>
   <si>
-    <t>28.4% (±1.7%)</t>
+    <t>28.0% (±1.6%)</t>
   </si>
   <si>
     <t>13.8% (±2.2%)</t>
@@ -1045,7 +1045,7 @@
     <t>6.1% (±1.7%)</t>
   </si>
   <si>
-    <t>12.1% (±2.7%)</t>
+    <t>12.2% (±2.8%)</t>
   </si>
   <si>
     <t>6.7% (±1.5%)</t>
@@ -1060,7 +1060,7 @@
     <t>-3.8% (±2.2%)</t>
   </si>
   <si>
-    <t>11.3% (±1.9%)</t>
+    <t>12.0% (±1.9%)</t>
   </si>
   <si>
     <t>37.3% (±10.3%)</t>
@@ -1072,16 +1072,16 @@
     <t>20.7% (±4.0%)</t>
   </si>
   <si>
-    <t>22.2% (±3.1%)</t>
-  </si>
-  <si>
-    <t>21.6% (±4.0%)</t>
-  </si>
-  <si>
-    <t>19.8% (±1.9%)</t>
-  </si>
-  <si>
-    <t>-0.6% (±1.2%)</t>
+    <t>22.4% (±3.1%)</t>
+  </si>
+  <si>
+    <t>19.5% (±3.9%)</t>
+  </si>
+  <si>
+    <t>19.9% (±1.9%)</t>
+  </si>
+  <si>
+    <t>-0.7% (±1.2%)</t>
   </si>
   <si>
     <t>29.8% (±2.9%)</t>
@@ -1099,10 +1099,10 @@
     <t>15.9% (±1.9%)</t>
   </si>
   <si>
-    <t>35.6% (±2.7%)</t>
-  </si>
-  <si>
-    <t>26.3% (±0.7%)</t>
+    <t>35.8% (±2.7%)</t>
+  </si>
+  <si>
+    <t>25.3% (±0.7%)</t>
   </si>
   <si>
     <t>12.8% (±1.5%)</t>
@@ -1111,7 +1111,7 @@
     <t>1575.6(±142.7)</t>
   </si>
   <si>
-    <t>2233.3(±101.0)</t>
+    <t>2205.9(±101.0)</t>
   </si>
   <si>
     <t>1535.6(±223.7)</t>
@@ -1120,19 +1120,19 @@
     <t>1666.2(±98.7)</t>
   </si>
   <si>
-    <t>2315.9(±155.3)</t>
+    <t>2316.6(±155.3)</t>
   </si>
   <si>
     <t>256.2(±70.5)</t>
   </si>
   <si>
-    <t>966.0(±199.2)</t>
+    <t>971.4(±199.2)</t>
   </si>
   <si>
     <t>535.0(±113.2)</t>
   </si>
   <si>
-    <t>1214.7(±71.3)</t>
+    <t>1215.7(±71.4)</t>
   </si>
   <si>
     <t>892.3(±188.6)</t>
@@ -1144,7 +1144,7 @@
     <t>-320.2(±205.1)</t>
   </si>
   <si>
-    <t>1051.0(±163.4)</t>
+    <t>1114.3(±163.3)</t>
   </si>
   <si>
     <t>1383.3(±300.2)</t>
@@ -1156,16 +1156,16 @@
     <t>1564.4(±261.5)</t>
   </si>
   <si>
-    <t>1523.1(±178.6)</t>
-  </si>
-  <si>
-    <t>2245.2(±356.7)</t>
-  </si>
-  <si>
-    <t>1675.6(±135.4)</t>
-  </si>
-  <si>
-    <t>-53.5(±102.5)</t>
+    <t>1537.6(±178.6)</t>
+  </si>
+  <si>
+    <t>2027.8(±356.7)</t>
+  </si>
+  <si>
+    <t>1679.7(±135.3)</t>
+  </si>
+  <si>
+    <t>-57.1(±102.6)</t>
   </si>
   <si>
     <t>2517.5(±194.5)</t>
@@ -1174,19 +1174,19 @@
     <t>1596.1(±194.9)</t>
   </si>
   <si>
-    <t>1999.1(±164.9)</t>
+    <t>2003.6(±164.9)</t>
   </si>
   <si>
     <t>1080.1(±143.9)</t>
   </si>
   <si>
-    <t>1522.6(±163.2)</t>
-  </si>
-  <si>
-    <t>2755.6(±159.5)</t>
-  </si>
-  <si>
-    <t>1905.6(±43.4)</t>
+    <t>1523.1(±163.3)</t>
+  </si>
+  <si>
+    <t>2768.2(±159.5)</t>
+  </si>
+  <si>
+    <t>1832.9(±43.4)</t>
   </si>
   <si>
     <t>1071.6(±115.6)</t>
@@ -1760,7 +1760,7 @@
         <v>29794</v>
       </c>
       <c r="H3">
-        <v>38648</v>
+        <v>38529</v>
       </c>
       <c r="I3">
         <v>30397.8</v>
@@ -1781,13 +1781,13 @@
         <v>30842</v>
       </c>
       <c r="O3">
-        <v>8250.200000000001</v>
+        <v>8131.2</v>
       </c>
       <c r="P3">
         <v>444.2</v>
       </c>
       <c r="Q3">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="R3">
         <v>1.8</v>
@@ -1805,7 +1805,7 @@
         <v>408179</v>
       </c>
       <c r="W3">
-        <v>2021.2</v>
+        <v>1992.1</v>
       </c>
       <c r="X3">
         <v>108.8</v>
@@ -1991,7 +1991,7 @@
         <v>25308</v>
       </c>
       <c r="H6">
-        <v>31216</v>
+        <v>31218</v>
       </c>
       <c r="I6">
         <v>25781</v>
@@ -2012,7 +2012,7 @@
         <v>26255</v>
       </c>
       <c r="O6">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="P6">
         <v>474</v>
@@ -2036,7 +2036,7 @@
         <v>287365</v>
       </c>
       <c r="W6">
-        <v>1891.3</v>
+        <v>1892</v>
       </c>
       <c r="X6">
         <v>165</v>
@@ -2145,7 +2145,7 @@
         <v>4248</v>
       </c>
       <c r="H8">
-        <v>4637</v>
+        <v>4639</v>
       </c>
       <c r="I8">
         <v>4183.999999999998</v>
@@ -2166,16 +2166,16 @@
         <v>4270.999999999998</v>
       </c>
       <c r="O8">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P8">
         <v>87</v>
       </c>
       <c r="Q8">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="R8">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="s">
         <v>60</v>
@@ -2190,7 +2190,7 @@
         <v>55600</v>
       </c>
       <c r="W8">
-        <v>814.7</v>
+        <v>818.3</v>
       </c>
       <c r="X8">
         <v>156.5</v>
@@ -2299,7 +2299,7 @@
         <v>173062</v>
       </c>
       <c r="H10">
-        <v>201738</v>
+        <v>201761</v>
       </c>
       <c r="I10">
         <v>174741.4</v>
@@ -2320,16 +2320,16 @@
         <v>176410.7</v>
       </c>
       <c r="O10">
-        <v>26996.6</v>
+        <v>27019.6</v>
       </c>
       <c r="P10">
         <v>1669.3</v>
       </c>
       <c r="Q10">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="s">
         <v>62</v>
@@ -2344,7 +2344,7 @@
         <v>2595337</v>
       </c>
       <c r="W10">
-        <v>1040.2</v>
+        <v>1041.1</v>
       </c>
       <c r="X10">
         <v>64.3</v>
@@ -2607,7 +2607,7 @@
         <v>7017</v>
       </c>
       <c r="H14">
-        <v>7844</v>
+        <v>7890</v>
       </c>
       <c r="I14">
         <v>7108.199999999997</v>
@@ -2628,13 +2628,13 @@
         <v>7224.799999999997</v>
       </c>
       <c r="O14">
-        <v>735.8</v>
+        <v>781.8</v>
       </c>
       <c r="P14">
         <v>116.6</v>
       </c>
       <c r="Q14">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="R14">
         <v>1.8</v>
@@ -2652,10 +2652,10 @@
         <v>80659</v>
       </c>
       <c r="W14">
-        <v>912.2</v>
+        <v>969.3</v>
       </c>
       <c r="X14">
-        <v>144.6</v>
+        <v>144.5</v>
       </c>
       <c r="Y14" t="s">
         <v>150</v>
@@ -2915,7 +2915,7 @@
         <v>820</v>
       </c>
       <c r="H18">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="I18">
         <v>833.6000000000003</v>
@@ -2936,16 +2936,16 @@
         <v>847.8000000000003</v>
       </c>
       <c r="O18">
-        <v>174.4</v>
+        <v>177.4</v>
       </c>
       <c r="P18">
         <v>14.2</v>
       </c>
       <c r="Q18">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="s">
         <v>70</v>
@@ -2960,7 +2960,7 @@
         <v>12881</v>
       </c>
       <c r="W18">
-        <v>1353.9</v>
+        <v>1377.2</v>
       </c>
       <c r="X18">
         <v>110.3</v>
@@ -2992,7 +2992,7 @@
         <v>1285</v>
       </c>
       <c r="H19">
-        <v>1457</v>
+        <v>1433</v>
       </c>
       <c r="I19">
         <v>1242</v>
@@ -3013,13 +3013,13 @@
         <v>1288.5</v>
       </c>
       <c r="O19">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P19">
         <v>46.5</v>
       </c>
       <c r="Q19">
-        <v>17.3</v>
+        <v>15.4</v>
       </c>
       <c r="R19">
         <v>4.2</v>
@@ -3037,10 +3037,10 @@
         <v>12166</v>
       </c>
       <c r="W19">
-        <v>1767.2</v>
+        <v>1569.9</v>
       </c>
       <c r="X19">
-        <v>382.2</v>
+        <v>382.3</v>
       </c>
       <c r="Y19" t="s">
         <v>155</v>
@@ -3057,46 +3057,46 @@
         <v>38840</v>
       </c>
       <c r="D20">
-        <v>39154</v>
+        <v>39143</v>
       </c>
       <c r="E20">
-        <v>38426</v>
+        <v>38421</v>
       </c>
       <c r="F20">
-        <v>39129</v>
+        <v>39124</v>
       </c>
       <c r="G20">
-        <v>39497</v>
+        <v>39494</v>
       </c>
       <c r="H20">
-        <v>45684</v>
+        <v>45695</v>
       </c>
       <c r="I20">
-        <v>39743.59999999999</v>
+        <v>39738.79999999999</v>
       </c>
       <c r="J20">
-        <v>358.3</v>
+        <v>357.9</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>314.1</v>
+        <v>313.7</v>
       </c>
       <c r="M20">
-        <v>39429.49999999999</v>
+        <v>39425.09999999999</v>
       </c>
       <c r="N20">
-        <v>40057.69999999999</v>
+        <v>40052.49999999999</v>
       </c>
       <c r="O20">
-        <v>5940.4</v>
+        <v>5956.2</v>
       </c>
       <c r="P20">
-        <v>314.1</v>
+        <v>313.7</v>
       </c>
       <c r="Q20">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="R20">
         <v>0.9</v>
@@ -3114,7 +3114,7 @@
         <v>490852</v>
       </c>
       <c r="W20">
-        <v>1210.2</v>
+        <v>1213.4</v>
       </c>
       <c r="X20">
         <v>64</v>
@@ -3146,7 +3146,7 @@
         <v>10930</v>
       </c>
       <c r="H21">
-        <v>11079</v>
+        <v>11076</v>
       </c>
       <c r="I21">
         <v>11346.2</v>
@@ -3167,7 +3167,7 @@
         <v>11523.6</v>
       </c>
       <c r="O21">
-        <v>-267.2</v>
+        <v>-270.2</v>
       </c>
       <c r="P21">
         <v>177.4</v>
@@ -3191,7 +3191,7 @@
         <v>138517</v>
       </c>
       <c r="W21">
-        <v>-192.9</v>
+        <v>-195.1</v>
       </c>
       <c r="X21">
         <v>128.1</v>
@@ -3377,7 +3377,7 @@
         <v>53805</v>
       </c>
       <c r="H24">
-        <v>63762</v>
+        <v>63785</v>
       </c>
       <c r="I24">
         <v>54289.59999999998</v>
@@ -3398,13 +3398,13 @@
         <v>55327.39999999998</v>
       </c>
       <c r="O24">
-        <v>9472.4</v>
+        <v>9495.4</v>
       </c>
       <c r="P24">
         <v>1037.8</v>
       </c>
       <c r="Q24">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="R24">
         <v>2.2</v>
@@ -3422,7 +3422,7 @@
         <v>589870</v>
       </c>
       <c r="W24">
-        <v>1605.8</v>
+        <v>1609.7</v>
       </c>
       <c r="X24">
         <v>176</v>
@@ -3531,7 +3531,7 @@
         <v>10829</v>
       </c>
       <c r="H26">
-        <v>12830</v>
+        <v>12831</v>
       </c>
       <c r="I26">
         <v>11332.8</v>
@@ -3552,7 +3552,7 @@
         <v>11532.1</v>
       </c>
       <c r="O26">
-        <v>1497.2</v>
+        <v>1498.2</v>
       </c>
       <c r="P26">
         <v>199.3</v>
@@ -3576,7 +3576,7 @@
         <v>124794</v>
       </c>
       <c r="W26">
-        <v>1199.7</v>
+        <v>1200.5</v>
       </c>
       <c r="X26">
         <v>159.7</v>
@@ -3608,7 +3608,7 @@
         <v>5520</v>
       </c>
       <c r="H27">
-        <v>7316</v>
+        <v>7327</v>
       </c>
       <c r="I27">
         <v>5485.4</v>
@@ -3629,13 +3629,13 @@
         <v>5596.099999999999</v>
       </c>
       <c r="O27">
-        <v>1830.6</v>
+        <v>1841.6</v>
       </c>
       <c r="P27">
         <v>110.7</v>
       </c>
       <c r="Q27">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="R27">
         <v>2.7</v>
@@ -3653,10 +3653,10 @@
         <v>74611</v>
       </c>
       <c r="W27">
-        <v>2453.5</v>
+        <v>2468.3</v>
       </c>
       <c r="X27">
-        <v>148.4</v>
+        <v>148.3</v>
       </c>
       <c r="Y27" t="s">
         <v>163</v>
@@ -3685,7 +3685,7 @@
         <v>117385</v>
       </c>
       <c r="H28">
-        <v>152215</v>
+        <v>151378</v>
       </c>
       <c r="I28">
         <v>121241</v>
@@ -3706,16 +3706,16 @@
         <v>121972</v>
       </c>
       <c r="O28">
-        <v>30974</v>
+        <v>30137</v>
       </c>
       <c r="P28">
         <v>731</v>
       </c>
       <c r="Q28">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="R28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S28" t="s">
         <v>80</v>
@@ -3730,7 +3730,7 @@
         <v>1812379</v>
       </c>
       <c r="W28">
-        <v>1709</v>
+        <v>1662.8</v>
       </c>
       <c r="X28">
         <v>40.4</v>
@@ -4006,7 +4006,7 @@
         <v>20468</v>
       </c>
       <c r="H3">
-        <v>26748</v>
+        <v>26690</v>
       </c>
       <c r="I3">
         <v>20549.60000000001</v>
@@ -4027,13 +4027,13 @@
         <v>20838.90000000001</v>
       </c>
       <c r="O3">
-        <v>6198.4</v>
+        <v>6140.4</v>
       </c>
       <c r="P3">
         <v>289.3</v>
       </c>
       <c r="Q3">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="R3">
         <v>1.8</v>
@@ -4051,7 +4051,7 @@
         <v>238790</v>
       </c>
       <c r="W3">
-        <v>2595.8</v>
+        <v>2571.5</v>
       </c>
       <c r="X3">
         <v>121.1</v>
@@ -4237,7 +4237,7 @@
         <v>15270</v>
       </c>
       <c r="H6">
-        <v>19769</v>
+        <v>19770</v>
       </c>
       <c r="I6">
         <v>15178.2</v>
@@ -4258,16 +4258,16 @@
         <v>15436.9</v>
       </c>
       <c r="O6">
-        <v>4590.8</v>
+        <v>4591.8</v>
       </c>
       <c r="P6">
         <v>258.7</v>
       </c>
       <c r="Q6">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="R6">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="s">
         <v>171</v>
@@ -4282,7 +4282,7 @@
         <v>145542</v>
       </c>
       <c r="W6">
-        <v>3154.3</v>
+        <v>3155</v>
       </c>
       <c r="X6">
         <v>177.7</v>
@@ -4391,7 +4391,7 @@
         <v>1819</v>
       </c>
       <c r="H8">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="I8">
         <v>1787.199999999999</v>
@@ -4412,13 +4412,13 @@
         <v>1851.499999999999</v>
       </c>
       <c r="O8">
-        <v>268.8</v>
+        <v>270.8</v>
       </c>
       <c r="P8">
         <v>64.3</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -4436,10 +4436,10 @@
         <v>19117</v>
       </c>
       <c r="W8">
-        <v>1406.1</v>
+        <v>1416.5</v>
       </c>
       <c r="X8">
-        <v>336.3</v>
+        <v>336.4</v>
       </c>
       <c r="Y8" t="s">
         <v>257</v>
@@ -4545,7 +4545,7 @@
         <v>117162</v>
       </c>
       <c r="H10">
-        <v>140534</v>
+        <v>140555</v>
       </c>
       <c r="I10">
         <v>118550.8</v>
@@ -4566,16 +4566,16 @@
         <v>119785.5</v>
       </c>
       <c r="O10">
-        <v>21983.2</v>
+        <v>22004.2</v>
       </c>
       <c r="P10">
         <v>1234.7</v>
       </c>
       <c r="Q10">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="R10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="s">
         <v>175</v>
@@ -4590,7 +4590,7 @@
         <v>1437067</v>
       </c>
       <c r="W10">
-        <v>1529.7</v>
+        <v>1531.2</v>
       </c>
       <c r="X10">
         <v>85.90000000000001</v>
@@ -4853,7 +4853,7 @@
         <v>2923</v>
       </c>
       <c r="H14">
-        <v>3280</v>
+        <v>3302</v>
       </c>
       <c r="I14">
         <v>2885.799999999998</v>
@@ -4874,16 +4874,16 @@
         <v>2967.399999999998</v>
       </c>
       <c r="O14">
-        <v>394.2</v>
+        <v>416.2</v>
       </c>
       <c r="P14">
         <v>81.59999999999999</v>
       </c>
       <c r="Q14">
-        <v>13.7</v>
+        <v>14.4</v>
       </c>
       <c r="R14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S14" t="s">
         <v>179</v>
@@ -4898,10 +4898,10 @@
         <v>26854</v>
       </c>
       <c r="W14">
-        <v>1467.9</v>
+        <v>1549.9</v>
       </c>
       <c r="X14">
-        <v>303.9</v>
+        <v>303.8</v>
       </c>
       <c r="Y14" t="s">
         <v>263</v>
@@ -5238,7 +5238,7 @@
         <v>899</v>
       </c>
       <c r="H19">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="I19">
         <v>858.6000000000005</v>
@@ -5259,13 +5259,13 @@
         <v>893.6000000000005</v>
       </c>
       <c r="O19">
-        <v>239.4</v>
+        <v>219.4</v>
       </c>
       <c r="P19">
         <v>35</v>
       </c>
       <c r="Q19">
-        <v>27.9</v>
+        <v>25.6</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -5283,10 +5283,10 @@
         <v>8073</v>
       </c>
       <c r="W19">
-        <v>2965.4</v>
+        <v>2717.7</v>
       </c>
       <c r="X19">
-        <v>433.6</v>
+        <v>433.5</v>
       </c>
       <c r="Y19" t="s">
         <v>268</v>
@@ -5303,22 +5303,22 @@
         <v>26201</v>
       </c>
       <c r="D20">
-        <v>26824</v>
+        <v>26821</v>
       </c>
       <c r="E20">
-        <v>26478</v>
+        <v>26470</v>
       </c>
       <c r="F20">
-        <v>27656</v>
+        <v>27648</v>
       </c>
       <c r="G20">
-        <v>28751</v>
+        <v>28749</v>
       </c>
       <c r="H20">
-        <v>35170</v>
+        <v>35182</v>
       </c>
       <c r="I20">
-        <v>27725.2</v>
+        <v>27720.99999999999</v>
       </c>
       <c r="J20">
         <v>924.4</v>
@@ -5330,13 +5330,13 @@
         <v>810.3</v>
       </c>
       <c r="M20">
-        <v>26914.90000000001</v>
+        <v>26910.69999999999</v>
       </c>
       <c r="N20">
-        <v>28535.5</v>
+        <v>28531.29999999999</v>
       </c>
       <c r="O20">
-        <v>7444.8</v>
+        <v>7461</v>
       </c>
       <c r="P20">
         <v>810.3</v>
@@ -5345,7 +5345,7 @@
         <v>26.9</v>
       </c>
       <c r="R20">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S20" t="s">
         <v>185</v>
@@ -5360,7 +5360,7 @@
         <v>307968</v>
       </c>
       <c r="W20">
-        <v>2417.4</v>
+        <v>2422.7</v>
       </c>
       <c r="X20">
         <v>263.1</v>
@@ -5392,7 +5392,7 @@
         <v>7794</v>
       </c>
       <c r="H21">
-        <v>7993</v>
+        <v>7988</v>
       </c>
       <c r="I21">
         <v>7846.800000000004</v>
@@ -5413,16 +5413,16 @@
         <v>7944.100000000004</v>
       </c>
       <c r="O21">
-        <v>146.2</v>
+        <v>141.2</v>
       </c>
       <c r="P21">
         <v>97.3</v>
       </c>
       <c r="Q21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="s">
         <v>186</v>
@@ -5437,7 +5437,7 @@
         <v>87482</v>
       </c>
       <c r="W21">
-        <v>167.1</v>
+        <v>161.4</v>
       </c>
       <c r="X21">
         <v>111.2</v>
@@ -5623,7 +5623,7 @@
         <v>33292</v>
       </c>
       <c r="H24">
-        <v>42794</v>
+        <v>42812</v>
       </c>
       <c r="I24">
         <v>34146.80000000001</v>
@@ -5644,16 +5644,16 @@
         <v>34663.30000000001</v>
       </c>
       <c r="O24">
-        <v>8647.200000000001</v>
+        <v>8665.200000000001</v>
       </c>
       <c r="P24">
         <v>516.5</v>
       </c>
       <c r="Q24">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="s">
         <v>189</v>
@@ -5668,7 +5668,7 @@
         <v>316528</v>
       </c>
       <c r="W24">
-        <v>2731.9</v>
+        <v>2737.6</v>
       </c>
       <c r="X24">
         <v>163.2</v>
@@ -5854,7 +5854,7 @@
         <v>3086</v>
       </c>
       <c r="H27">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="I27">
         <v>3101.000000000001</v>
@@ -5875,13 +5875,13 @@
         <v>3197.200000000001</v>
       </c>
       <c r="O27">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="P27">
         <v>96.2</v>
       </c>
       <c r="Q27">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="R27">
         <v>4.2</v>
@@ -5899,10 +5899,10 @@
         <v>36422</v>
       </c>
       <c r="W27">
-        <v>3374.3</v>
+        <v>3382.6</v>
       </c>
       <c r="X27">
-        <v>264.2</v>
+        <v>264.1</v>
       </c>
       <c r="Y27" t="s">
         <v>276</v>
@@ -5931,7 +5931,7 @@
         <v>85212</v>
       </c>
       <c r="H28">
-        <v>111388</v>
+        <v>110136</v>
       </c>
       <c r="I28">
         <v>87469.00000000006</v>
@@ -5952,13 +5952,13 @@
         <v>88120.60000000006</v>
       </c>
       <c r="O28">
-        <v>23919</v>
+        <v>22667</v>
       </c>
       <c r="P28">
         <v>651.6</v>
       </c>
       <c r="Q28">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="R28">
         <v>0.9</v>
@@ -5976,7 +5976,7 @@
         <v>1068505</v>
       </c>
       <c r="W28">
-        <v>2238.5</v>
+        <v>2121.4</v>
       </c>
       <c r="X28">
         <v>61</v>
@@ -6252,7 +6252,7 @@
         <v>50262</v>
       </c>
       <c r="H3">
-        <v>65396</v>
+        <v>65219</v>
       </c>
       <c r="I3">
         <v>50947.4</v>
@@ -6273,16 +6273,16 @@
         <v>51600.9</v>
       </c>
       <c r="O3">
-        <v>14448.6</v>
+        <v>14271.6</v>
       </c>
       <c r="P3">
         <v>653.5</v>
       </c>
       <c r="Q3">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="R3">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="s">
         <v>281</v>
@@ -6297,7 +6297,7 @@
         <v>646969</v>
       </c>
       <c r="W3">
-        <v>2233.3</v>
+        <v>2205.9</v>
       </c>
       <c r="X3">
         <v>101</v>
@@ -6483,7 +6483,7 @@
         <v>40578</v>
       </c>
       <c r="H6">
-        <v>50985</v>
+        <v>50988</v>
       </c>
       <c r="I6">
         <v>40959.20000000002</v>
@@ -6504,7 +6504,7 @@
         <v>41631.50000000002</v>
       </c>
       <c r="O6">
-        <v>10025.8</v>
+        <v>10028.8</v>
       </c>
       <c r="P6">
         <v>672.3</v>
@@ -6528,7 +6528,7 @@
         <v>432907</v>
       </c>
       <c r="W6">
-        <v>2315.9</v>
+        <v>2316.6</v>
       </c>
       <c r="X6">
         <v>155.3</v>
@@ -6637,7 +6637,7 @@
         <v>6067</v>
       </c>
       <c r="H8">
-        <v>6693</v>
+        <v>6697</v>
       </c>
       <c r="I8">
         <v>5971.200000000003</v>
@@ -6658,16 +6658,16 @@
         <v>6120.000000000004</v>
       </c>
       <c r="O8">
-        <v>721.8</v>
+        <v>725.8</v>
       </c>
       <c r="P8">
         <v>148.8</v>
       </c>
       <c r="Q8">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="R8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S8" t="s">
         <v>286</v>
@@ -6682,7 +6682,7 @@
         <v>74717</v>
       </c>
       <c r="W8">
-        <v>966</v>
+        <v>971.4</v>
       </c>
       <c r="X8">
         <v>199.2</v>
@@ -6791,7 +6791,7 @@
         <v>290224</v>
       </c>
       <c r="H10">
-        <v>342272</v>
+        <v>342316</v>
       </c>
       <c r="I10">
         <v>293292.2</v>
@@ -6812,7 +6812,7 @@
         <v>296169.9</v>
       </c>
       <c r="O10">
-        <v>48979.8</v>
+        <v>49023.8</v>
       </c>
       <c r="P10">
         <v>2877.7</v>
@@ -6836,10 +6836,10 @@
         <v>4032404</v>
       </c>
       <c r="W10">
-        <v>1214.7</v>
+        <v>1215.7</v>
       </c>
       <c r="X10">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="Y10" t="s">
         <v>371</v>
@@ -7099,7 +7099,7 @@
         <v>9940</v>
       </c>
       <c r="H14">
-        <v>11124</v>
+        <v>11192</v>
       </c>
       <c r="I14">
         <v>9993.999999999998</v>
@@ -7120,13 +7120,13 @@
         <v>10169.6</v>
       </c>
       <c r="O14">
-        <v>1130</v>
+        <v>1198</v>
       </c>
       <c r="P14">
         <v>175.6</v>
       </c>
       <c r="Q14">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="R14">
         <v>1.9</v>
@@ -7144,10 +7144,10 @@
         <v>107513</v>
       </c>
       <c r="W14">
-        <v>1051</v>
+        <v>1114.3</v>
       </c>
       <c r="X14">
-        <v>163.4</v>
+        <v>163.3</v>
       </c>
       <c r="Y14" t="s">
         <v>375</v>
@@ -7407,7 +7407,7 @@
         <v>1429</v>
       </c>
       <c r="H18">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="I18">
         <v>1424.600000000001</v>
@@ -7428,13 +7428,13 @@
         <v>1461.700000000001</v>
       </c>
       <c r="O18">
-        <v>316.4</v>
+        <v>319.4</v>
       </c>
       <c r="P18">
         <v>37.1</v>
       </c>
       <c r="Q18">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="R18">
         <v>3.1</v>
@@ -7452,7 +7452,7 @@
         <v>20773</v>
       </c>
       <c r="W18">
-        <v>1523.1</v>
+        <v>1537.6</v>
       </c>
       <c r="X18">
         <v>178.6</v>
@@ -7484,7 +7484,7 @@
         <v>2184</v>
       </c>
       <c r="H19">
-        <v>2555</v>
+        <v>2511</v>
       </c>
       <c r="I19">
         <v>2100.599999999999</v>
@@ -7505,16 +7505,16 @@
         <v>2172.799999999999</v>
       </c>
       <c r="O19">
-        <v>454.4</v>
+        <v>410.4</v>
       </c>
       <c r="P19">
         <v>72.2</v>
       </c>
       <c r="Q19">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S19" t="s">
         <v>297</v>
@@ -7529,7 +7529,7 @@
         <v>20239</v>
       </c>
       <c r="W19">
-        <v>2245.2</v>
+        <v>2027.8</v>
       </c>
       <c r="X19">
         <v>356.7</v>
@@ -7549,46 +7549,46 @@
         <v>65041</v>
       </c>
       <c r="D20">
-        <v>65978</v>
+        <v>65964</v>
       </c>
       <c r="E20">
-        <v>64904</v>
+        <v>64891</v>
       </c>
       <c r="F20">
-        <v>66785</v>
+        <v>66772</v>
       </c>
       <c r="G20">
-        <v>68248</v>
+        <v>68242</v>
       </c>
       <c r="H20">
-        <v>80854</v>
+        <v>80877</v>
       </c>
       <c r="I20">
-        <v>67468.79999999999</v>
+        <v>67459.59999999999</v>
       </c>
       <c r="J20">
-        <v>1233.6</v>
+        <v>1233.5</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>1081.3</v>
+        <v>1081.2</v>
       </c>
       <c r="M20">
-        <v>66387.49999999999</v>
+        <v>66378.39999999999</v>
       </c>
       <c r="N20">
-        <v>68550.09999999999</v>
+        <v>68540.79999999999</v>
       </c>
       <c r="O20">
-        <v>13385.2</v>
+        <v>13417.4</v>
       </c>
       <c r="P20">
-        <v>1081.3</v>
+        <v>1081.2</v>
       </c>
       <c r="Q20">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -7606,10 +7606,10 @@
         <v>798820</v>
       </c>
       <c r="W20">
-        <v>1675.6</v>
+        <v>1679.7</v>
       </c>
       <c r="X20">
-        <v>135.4</v>
+        <v>135.3</v>
       </c>
       <c r="Y20" t="s">
         <v>381</v>
@@ -7638,7 +7638,7 @@
         <v>18724</v>
       </c>
       <c r="H21">
-        <v>19072</v>
+        <v>19064</v>
       </c>
       <c r="I21">
         <v>19193</v>
@@ -7659,13 +7659,13 @@
         <v>19424.8</v>
       </c>
       <c r="O21">
-        <v>-121</v>
+        <v>-129</v>
       </c>
       <c r="P21">
         <v>231.8</v>
       </c>
       <c r="Q21">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="R21">
         <v>1.2</v>
@@ -7683,10 +7683,10 @@
         <v>225999</v>
       </c>
       <c r="W21">
-        <v>-53.5</v>
+        <v>-57.1</v>
       </c>
       <c r="X21">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="Y21" t="s">
         <v>382</v>
@@ -7869,7 +7869,7 @@
         <v>87097</v>
       </c>
       <c r="H24">
-        <v>106556</v>
+        <v>106597</v>
       </c>
       <c r="I24">
         <v>88436.39999999999</v>
@@ -7890,7 +7890,7 @@
         <v>89931.2</v>
       </c>
       <c r="O24">
-        <v>18119.6</v>
+        <v>18160.6</v>
       </c>
       <c r="P24">
         <v>1494.8</v>
@@ -7914,7 +7914,7 @@
         <v>906398</v>
       </c>
       <c r="W24">
-        <v>1999.1</v>
+        <v>2003.6</v>
       </c>
       <c r="X24">
         <v>164.9</v>
@@ -8023,7 +8023,7 @@
         <v>16409</v>
       </c>
       <c r="H26">
-        <v>19897</v>
+        <v>19898</v>
       </c>
       <c r="I26">
         <v>17163.79999999999</v>
@@ -8044,7 +8044,7 @@
         <v>17456.89999999999</v>
       </c>
       <c r="O26">
-        <v>2733.2</v>
+        <v>2734.2</v>
       </c>
       <c r="P26">
         <v>293.1</v>
@@ -8068,10 +8068,10 @@
         <v>179513</v>
       </c>
       <c r="W26">
-        <v>1522.6</v>
+        <v>1523.1</v>
       </c>
       <c r="X26">
-        <v>163.2</v>
+        <v>163.3</v>
       </c>
       <c r="Y26" t="s">
         <v>387</v>
@@ -8100,7 +8100,7 @@
         <v>8606</v>
       </c>
       <c r="H27">
-        <v>11646</v>
+        <v>11660</v>
       </c>
       <c r="I27">
         <v>8586.399999999996</v>
@@ -8121,13 +8121,13 @@
         <v>8763.499999999996</v>
       </c>
       <c r="O27">
-        <v>3059.6</v>
+        <v>3073.6</v>
       </c>
       <c r="P27">
         <v>177.1</v>
       </c>
       <c r="Q27">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="R27">
         <v>2.7</v>
@@ -8145,7 +8145,7 @@
         <v>111033</v>
       </c>
       <c r="W27">
-        <v>2755.6</v>
+        <v>2768.2</v>
       </c>
       <c r="X27">
         <v>159.5</v>
@@ -8177,7 +8177,7 @@
         <v>202597</v>
       </c>
       <c r="H28">
-        <v>263609</v>
+        <v>261514</v>
       </c>
       <c r="I28">
         <v>208710</v>
@@ -8198,13 +8198,13 @@
         <v>209959.5</v>
       </c>
       <c r="O28">
-        <v>54899</v>
+        <v>52804</v>
       </c>
       <c r="P28">
         <v>1249.5</v>
       </c>
       <c r="Q28">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="R28">
         <v>0.7</v>
@@ -8222,7 +8222,7 @@
         <v>2880884</v>
       </c>
       <c r="W28">
-        <v>1905.6</v>
+        <v>1832.9</v>
       </c>
       <c r="X28">
         <v>43.4</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
@@ -277,25 +277,25 @@
     <t>2018.0 (±135.2)</t>
   </si>
   <si>
-    <t>5437.0 (±474.0)</t>
+    <t>5440.0 (±474.0)</t>
   </si>
   <si>
     <t>343.6 (±111.0)</t>
   </si>
   <si>
-    <t>455.0 (±87.0)</t>
+    <t>431.0 (±87.0)</t>
   </si>
   <si>
     <t>719.0 (±213.3)</t>
   </si>
   <si>
-    <t>27019.6 (±1669.3)</t>
+    <t>27033.6 (±1669.3)</t>
   </si>
   <si>
     <t>3875.0 (±837.8)</t>
   </si>
   <si>
-    <t>4015.0 (±444.9)</t>
+    <t>4035.0 (±444.9)</t>
   </si>
   <si>
     <t>-4.8 (±12.1)</t>
@@ -316,13 +316,13 @@
     <t>177.4 (±14.2)</t>
   </si>
   <si>
-    <t>191.0 (±46.5)</t>
+    <t>255.0 (±46.5)</t>
   </si>
   <si>
     <t>5956.2 (±313.7)</t>
   </si>
   <si>
-    <t>-270.2 (±177.4)</t>
+    <t>-268.2 (±177.4)</t>
   </si>
   <si>
     <t>23331.4 (±2254.5)</t>
@@ -337,16 +337,16 @@
     <t>1512.2 (±302.3)</t>
   </si>
   <si>
-    <t>1498.2 (±199.3)</t>
-  </si>
-  <si>
-    <t>1841.6 (±110.7)</t>
+    <t>1499.2 (±199.3)</t>
+  </si>
+  <si>
+    <t>1840.6 (±110.7)</t>
   </si>
   <si>
     <t>30137.0 (±731.0)</t>
   </si>
   <si>
-    <t>2371.2 (±490.1)</t>
+    <t>2372.2 (±490.1)</t>
   </si>
   <si>
     <t>13.4% (±1.9%)</t>
@@ -367,7 +367,7 @@
     <t>2.7% (±0.9%)</t>
   </si>
   <si>
-    <t>10.9% (±2.3%)</t>
+    <t>10.3% (±2.2%)</t>
   </si>
   <si>
     <t>4.9% (±1.5%)</t>
@@ -379,7 +379,7 @@
     <t>11.2% (±2.6%)</t>
   </si>
   <si>
-    <t>14.0% (±1.7%)</t>
+    <t>14.1% (±1.8%)</t>
   </si>
   <si>
     <t>-0.8% (±2.1%)</t>
@@ -400,7 +400,7 @@
     <t>21.3% (±2.1%)</t>
   </si>
   <si>
-    <t>15.4% (±4.2%)</t>
+    <t>20.5% (±4.3%)</t>
   </si>
   <si>
     <t>15.0% (±0.9%)</t>
@@ -445,25 +445,25 @@
     <t>1380.1(±92.5)</t>
   </si>
   <si>
-    <t>1892.0(±165.0)</t>
+    <t>1893.1(±164.9)</t>
   </si>
   <si>
     <t>106.7(±34.5)</t>
   </si>
   <si>
-    <t>818.3(±156.5)</t>
+    <t>775.2(±156.5)</t>
   </si>
   <si>
     <t>369.4(±109.5)</t>
   </si>
   <si>
-    <t>1041.1(±64.3)</t>
+    <t>1041.6(±64.3)</t>
   </si>
   <si>
     <t>865.4(±187.1)</t>
   </si>
   <si>
-    <t>1319.2(±146.2)</t>
+    <t>1325.8(±146.1)</t>
   </si>
   <si>
     <t>-66.9(±168.7)</t>
@@ -484,13 +484,13 @@
     <t>1377.2(±110.3)</t>
   </si>
   <si>
-    <t>1569.9(±382.3)</t>
+    <t>2096.0(±382.2)</t>
   </si>
   <si>
     <t>1213.4(±64.0)</t>
   </si>
   <si>
-    <t>-195.1(±128.1)</t>
+    <t>-193.6(±128.0)</t>
   </si>
   <si>
     <t>2036.7(±196.8)</t>
@@ -505,16 +505,16 @@
     <t>766.5(±153.2)</t>
   </si>
   <si>
-    <t>1200.5(±159.7)</t>
-  </si>
-  <si>
-    <t>2468.3(±148.3)</t>
+    <t>1201.3(±159.7)</t>
+  </si>
+  <si>
+    <t>2466.9(±148.4)</t>
   </si>
   <si>
     <t>1662.8(±40.4)</t>
   </si>
   <si>
-    <t>754.1(±155.8)</t>
+    <t>754.4(±155.9)</t>
   </si>
   <si>
     <t>Male</t>
@@ -577,7 +577,7 @@
     <t>27721.0 (±810.3)</t>
   </si>
   <si>
-    <t>7846.8 (±97.3)</t>
+    <t>7847.0 (±97.5)</t>
   </si>
   <si>
     <t>49675.6 (±987.7)</t>
@@ -607,7 +607,7 @@
     <t>3893.0 (±406.8)</t>
   </si>
   <si>
-    <t>6140.4 (±289.3)</t>
+    <t>6139.4 (±289.3)</t>
   </si>
   <si>
     <t>2558.4 (±318.8)</t>
@@ -616,25 +616,25 @@
     <t>1608.2 (±111.7)</t>
   </si>
   <si>
-    <t>4591.8 (±258.7)</t>
+    <t>4592.8 (±258.7)</t>
   </si>
   <si>
     <t>1019.4 (±285.9)</t>
   </si>
   <si>
-    <t>270.8 (±64.3)</t>
+    <t>257.8 (±64.3)</t>
   </si>
   <si>
     <t>900.6 (±228.4)</t>
   </si>
   <si>
-    <t>22004.2 (±1234.7)</t>
+    <t>22017.2 (±1234.7)</t>
   </si>
   <si>
     <t>2910.0 (±626.5)</t>
   </si>
   <si>
-    <t>2190.6 (±229.4)</t>
+    <t>2197.6 (±229.4)</t>
   </si>
   <si>
     <t>-35.0 (±21.3)</t>
@@ -655,13 +655,13 @@
     <t>142.0 (±26.8)</t>
   </si>
   <si>
-    <t>219.4 (±35.0)</t>
+    <t>273.4 (±35.0)</t>
   </si>
   <si>
     <t>7461.0 (±810.3)</t>
   </si>
   <si>
-    <t>141.2 (±97.3)</t>
+    <t>141.0 (±97.5)</t>
   </si>
   <si>
     <t>18468.4 (±987.7)</t>
@@ -679,10 +679,10 @@
     <t>1236.0 (±98.5)</t>
   </si>
   <si>
-    <t>1232.0 (±96.2)</t>
-  </si>
-  <si>
-    <t>22667.0 (±651.6)</t>
+    <t>1229.0 (±96.2)</t>
+  </si>
+  <si>
+    <t>22668.0 (±651.6)</t>
   </si>
   <si>
     <t>3224.2 (±150.2)</t>
@@ -706,7 +706,7 @@
     <t>10.9% (±3.3%)</t>
   </si>
   <si>
-    <t>15.2% (±4.0%)</t>
+    <t>14.4% (±3.9%)</t>
   </si>
   <si>
     <t>9.6% (±2.6%)</t>
@@ -718,7 +718,7 @@
     <t>11.3% (±2.7%)</t>
   </si>
   <si>
-    <t>15.3% (±1.8%)</t>
+    <t>15.4% (±1.9%)</t>
   </si>
   <si>
     <t>-7.4% (±3.9%)</t>
@@ -739,13 +739,13 @@
     <t>24.0% (±5.4%)</t>
   </si>
   <si>
-    <t>25.6% (±5.0%)</t>
+    <t>31.8% (±5.1%)</t>
   </si>
   <si>
     <t>26.9% (±3.6%)</t>
   </si>
   <si>
-    <t>1.8% (±1.2%)</t>
+    <t>1.8% (±1.3%)</t>
   </si>
   <si>
     <t>37.2% (±2.7%)</t>
@@ -763,7 +763,7 @@
     <t>21.2% (±2.0%)</t>
   </si>
   <si>
-    <t>39.7% (±4.2%)</t>
+    <t>39.6% (±4.2%)</t>
   </si>
   <si>
     <t>25.9% (±0.9%)</t>
@@ -775,7 +775,7 @@
     <t>2407.1(±251.5)</t>
   </si>
   <si>
-    <t>2571.5(±121.1)</t>
+    <t>2571.0(±121.2)</t>
   </si>
   <si>
     <t>2171.9(±270.6)</t>
@@ -784,25 +784,25 @@
     <t>2252.0(±156.4)</t>
   </si>
   <si>
-    <t>3155.0(±177.7)</t>
+    <t>3155.7(±177.7)</t>
   </si>
   <si>
     <t>485.4(±136.2)</t>
   </si>
   <si>
-    <t>1416.5(±336.4)</t>
+    <t>1348.5(±336.4)</t>
   </si>
   <si>
     <t>833.5(±211.3)</t>
   </si>
   <si>
-    <t>1531.2(±85.9)</t>
+    <t>1532.1(±85.9)</t>
   </si>
   <si>
     <t>930.7(±200.4)</t>
   </si>
   <si>
-    <t>1727.2(±180.8)</t>
+    <t>1732.7(±180.9)</t>
   </si>
   <si>
     <t>-665.5(±405.0)</t>
@@ -823,13 +823,13 @@
     <t>1799.3(±339.6)</t>
   </si>
   <si>
-    <t>2717.7(±433.5)</t>
+    <t>3386.6(±433.5)</t>
   </si>
   <si>
     <t>2422.7(±263.1)</t>
   </si>
   <si>
-    <t>161.4(±111.2)</t>
+    <t>161.2(±111.4)</t>
   </si>
   <si>
     <t>3587.4(±191.8)</t>
@@ -847,10 +847,10 @@
     <t>2258.8(±180.0)</t>
   </si>
   <si>
-    <t>3382.6(±264.1)</t>
-  </si>
-  <si>
-    <t>2121.4(±61.0)</t>
+    <t>3374.3(±264.2)</t>
+  </si>
+  <si>
+    <t>2121.5(±61.0)</t>
   </si>
   <si>
     <t>1552.5(±72.3)</t>
@@ -916,7 +916,7 @@
     <t>67459.6 (±1081.2)</t>
   </si>
   <si>
-    <t>19193.0 (±231.8)</t>
+    <t>19193.2 (±231.8)</t>
   </si>
   <si>
     <t>140065.2 (±3229.3)</t>
@@ -946,7 +946,7 @@
     <t>6972.2 (±631.5)</t>
   </si>
   <si>
-    <t>14271.6 (±653.5)</t>
+    <t>14270.6 (±653.5)</t>
   </si>
   <si>
     <t>5199.8 (±757.3)</t>
@@ -955,25 +955,25 @@
     <t>3626.2 (±214.7)</t>
   </si>
   <si>
-    <t>10028.8 (±672.3)</t>
+    <t>10032.8 (±672.3)</t>
   </si>
   <si>
     <t>1363.0 (±374.9)</t>
   </si>
   <si>
-    <t>725.8 (±148.8)</t>
+    <t>688.8 (±148.8)</t>
   </si>
   <si>
     <t>1619.6 (±342.6)</t>
   </si>
   <si>
-    <t>49023.8 (±2877.7)</t>
+    <t>49050.8 (±2877.7)</t>
   </si>
   <si>
     <t>6785.0 (±1434.6)</t>
   </si>
   <si>
-    <t>6205.6 (±620.7)</t>
+    <t>6232.6 (±620.7)</t>
   </si>
   <si>
     <t>-39.8 (±25.5)</t>
@@ -994,13 +994,13 @@
     <t>319.4 (±37.1)</t>
   </si>
   <si>
-    <t>410.4 (±72.2)</t>
+    <t>528.4 (±72.2)</t>
   </si>
   <si>
     <t>13417.4 (±1081.2)</t>
   </si>
   <si>
-    <t>-129.0 (±231.8)</t>
+    <t>-127.2 (±231.8)</t>
   </si>
   <si>
     <t>41799.8 (±3229.3)</t>
@@ -1015,16 +1015,16 @@
     <t>3446.0 (±459.0)</t>
   </si>
   <si>
-    <t>2734.2 (±293.1)</t>
-  </si>
-  <si>
-    <t>3073.6 (±177.1)</t>
-  </si>
-  <si>
-    <t>52804.0 (±1249.5)</t>
-  </si>
-  <si>
-    <t>5595.4 (±603.4)</t>
+    <t>2735.2 (±293.1)</t>
+  </si>
+  <si>
+    <t>3069.6 (±177.1)</t>
+  </si>
+  <si>
+    <t>52805.0 (±1249.5)</t>
+  </si>
+  <si>
+    <t>5596.4 (±603.4)</t>
   </si>
   <si>
     <t>18.8% (±2.0%)</t>
@@ -1045,7 +1045,7 @@
     <t>6.1% (±1.7%)</t>
   </si>
   <si>
-    <t>12.2% (±2.8%)</t>
+    <t>11.5% (±2.7%)</t>
   </si>
   <si>
     <t>6.7% (±1.5%)</t>
@@ -1054,7 +1054,7 @@
     <t>16.7% (±1.1%)</t>
   </si>
   <si>
-    <t>14.4% (±1.6%)</t>
+    <t>14.5% (±1.6%)</t>
   </si>
   <si>
     <t>-3.8% (±2.2%)</t>
@@ -1075,13 +1075,13 @@
     <t>22.4% (±3.1%)</t>
   </si>
   <si>
-    <t>19.5% (±3.9%)</t>
+    <t>25.2% (±4.2%)</t>
   </si>
   <si>
     <t>19.9% (±1.9%)</t>
   </si>
   <si>
-    <t>-0.7% (±1.2%)</t>
+    <t>-0.7% (±1.1%)</t>
   </si>
   <si>
     <t>29.8% (±2.9%)</t>
@@ -1099,7 +1099,7 @@
     <t>15.9% (±1.9%)</t>
   </si>
   <si>
-    <t>35.8% (±2.7%)</t>
+    <t>35.7% (±2.7%)</t>
   </si>
   <si>
     <t>25.3% (±0.7%)</t>
@@ -1111,7 +1111,7 @@
     <t>1575.6(±142.7)</t>
   </si>
   <si>
-    <t>2205.9(±101.0)</t>
+    <t>2205.8(±101.0)</t>
   </si>
   <si>
     <t>1535.6(±223.7)</t>
@@ -1120,25 +1120,25 @@
     <t>1666.2(±98.7)</t>
   </si>
   <si>
-    <t>2316.6(±155.3)</t>
+    <t>2317.5(±155.3)</t>
   </si>
   <si>
     <t>256.2(±70.5)</t>
   </si>
   <si>
-    <t>971.4(±199.2)</t>
+    <t>921.9(±199.1)</t>
   </si>
   <si>
     <t>535.0(±113.2)</t>
   </si>
   <si>
-    <t>1215.7(±71.4)</t>
+    <t>1216.4(±71.4)</t>
   </si>
   <si>
     <t>892.3(±188.6)</t>
   </si>
   <si>
-    <t>1439.2(±143.9)</t>
+    <t>1445.5(±143.9)</t>
   </si>
   <si>
     <t>-320.2(±205.1)</t>
@@ -1159,13 +1159,13 @@
     <t>1537.6(±178.6)</t>
   </si>
   <si>
-    <t>2027.8(±356.7)</t>
+    <t>2610.8(±356.7)</t>
   </si>
   <si>
     <t>1679.7(±135.3)</t>
   </si>
   <si>
-    <t>-57.1(±102.6)</t>
+    <t>-56.3(±102.6)</t>
   </si>
   <si>
     <t>2517.5(±194.5)</t>
@@ -1180,16 +1180,16 @@
     <t>1080.1(±143.9)</t>
   </si>
   <si>
-    <t>1523.1(±163.3)</t>
-  </si>
-  <si>
-    <t>2768.2(±159.5)</t>
+    <t>1523.7(±163.3)</t>
+  </si>
+  <si>
+    <t>2764.6(±159.5)</t>
   </si>
   <si>
     <t>1832.9(±43.4)</t>
   </si>
   <si>
-    <t>1071.6(±115.6)</t>
+    <t>1071.8(±115.6)</t>
   </si>
   <si>
     <t>Age</t>
@@ -1698,7 +1698,7 @@
         <v>381.2</v>
       </c>
       <c r="M2">
-        <v>22601.59999999999</v>
+        <v>22601.6</v>
       </c>
       <c r="N2">
         <v>23364</v>
@@ -1840,7 +1840,7 @@
         <v>25542</v>
       </c>
       <c r="I4">
-        <v>22900.60000000001</v>
+        <v>22900.6</v>
       </c>
       <c r="J4">
         <v>515.8</v>
@@ -1852,7 +1852,7 @@
         <v>452.1</v>
       </c>
       <c r="M4">
-        <v>22448.50000000001</v>
+        <v>22448.5</v>
       </c>
       <c r="N4">
         <v>23352.7</v>
@@ -1917,7 +1917,7 @@
         <v>15455</v>
       </c>
       <c r="I5">
-        <v>13436.99999999999</v>
+        <v>13437</v>
       </c>
       <c r="J5">
         <v>154.3</v>
@@ -1929,10 +1929,10 @@
         <v>135.2</v>
       </c>
       <c r="M5">
-        <v>13301.79999999999</v>
+        <v>13301.8</v>
       </c>
       <c r="N5">
-        <v>13572.19999999999</v>
+        <v>13572.2</v>
       </c>
       <c r="O5">
         <v>2018</v>
@@ -1991,7 +1991,7 @@
         <v>25308</v>
       </c>
       <c r="H6">
-        <v>31218</v>
+        <v>31221</v>
       </c>
       <c r="I6">
         <v>25781</v>
@@ -2012,7 +2012,7 @@
         <v>26255</v>
       </c>
       <c r="O6">
-        <v>5437</v>
+        <v>5440</v>
       </c>
       <c r="P6">
         <v>474</v>
@@ -2036,10 +2036,10 @@
         <v>287365</v>
       </c>
       <c r="W6">
-        <v>1892</v>
+        <v>1893.1</v>
       </c>
       <c r="X6">
-        <v>165</v>
+        <v>164.9</v>
       </c>
       <c r="Y6" t="s">
         <v>142</v>
@@ -2145,10 +2145,10 @@
         <v>4248</v>
       </c>
       <c r="H8">
-        <v>4639</v>
+        <v>4615</v>
       </c>
       <c r="I8">
-        <v>4183.999999999998</v>
+        <v>4184</v>
       </c>
       <c r="J8">
         <v>99.2</v>
@@ -2160,22 +2160,22 @@
         <v>87</v>
       </c>
       <c r="M8">
-        <v>4096.999999999998</v>
+        <v>4097</v>
       </c>
       <c r="N8">
-        <v>4270.999999999998</v>
+        <v>4271</v>
       </c>
       <c r="O8">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="P8">
         <v>87</v>
       </c>
       <c r="Q8">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="R8">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="s">
         <v>60</v>
@@ -2190,7 +2190,7 @@
         <v>55600</v>
       </c>
       <c r="W8">
-        <v>818.3</v>
+        <v>775.2</v>
       </c>
       <c r="X8">
         <v>156.5</v>
@@ -2225,7 +2225,7 @@
         <v>15493</v>
       </c>
       <c r="I9">
-        <v>14773.99999999999</v>
+        <v>14774</v>
       </c>
       <c r="J9">
         <v>243.3</v>
@@ -2237,10 +2237,10 @@
         <v>213.3</v>
       </c>
       <c r="M9">
-        <v>14560.69999999999</v>
+        <v>14560.7</v>
       </c>
       <c r="N9">
-        <v>14987.29999999999</v>
+        <v>14987.3</v>
       </c>
       <c r="O9">
         <v>719</v>
@@ -2299,7 +2299,7 @@
         <v>173062</v>
       </c>
       <c r="H10">
-        <v>201761</v>
+        <v>201775</v>
       </c>
       <c r="I10">
         <v>174741.4</v>
@@ -2320,7 +2320,7 @@
         <v>176410.7</v>
       </c>
       <c r="O10">
-        <v>27019.6</v>
+        <v>27033.6</v>
       </c>
       <c r="P10">
         <v>1669.3</v>
@@ -2344,7 +2344,7 @@
         <v>2595337</v>
       </c>
       <c r="W10">
-        <v>1041.1</v>
+        <v>1041.6</v>
       </c>
       <c r="X10">
         <v>64.3</v>
@@ -2453,7 +2453,7 @@
         <v>27895</v>
       </c>
       <c r="H12">
-        <v>32674</v>
+        <v>32694</v>
       </c>
       <c r="I12">
         <v>28659</v>
@@ -2471,19 +2471,19 @@
         <v>28214.1</v>
       </c>
       <c r="N12">
-        <v>29103.90000000001</v>
+        <v>29103.9</v>
       </c>
       <c r="O12">
-        <v>4015</v>
+        <v>4035</v>
       </c>
       <c r="P12">
         <v>444.9</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="R12">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="s">
         <v>64</v>
@@ -2498,10 +2498,10 @@
         <v>304355</v>
       </c>
       <c r="W12">
-        <v>1319.2</v>
+        <v>1325.8</v>
       </c>
       <c r="X12">
-        <v>146.2</v>
+        <v>146.1</v>
       </c>
       <c r="Y12" t="s">
         <v>148</v>
@@ -2533,7 +2533,7 @@
         <v>575</v>
       </c>
       <c r="I13">
-        <v>579.8000000000001</v>
+        <v>579.8</v>
       </c>
       <c r="J13">
         <v>13.8</v>
@@ -2545,10 +2545,10 @@
         <v>12.1</v>
       </c>
       <c r="M13">
-        <v>567.7</v>
+        <v>567.6999999999999</v>
       </c>
       <c r="N13">
-        <v>591.9000000000001</v>
+        <v>591.9</v>
       </c>
       <c r="O13">
         <v>-4.8</v>
@@ -2610,7 +2610,7 @@
         <v>7890</v>
       </c>
       <c r="I14">
-        <v>7108.199999999997</v>
+        <v>7108.2</v>
       </c>
       <c r="J14">
         <v>133</v>
@@ -2622,10 +2622,10 @@
         <v>116.6</v>
       </c>
       <c r="M14">
-        <v>6991.599999999997</v>
+        <v>6991.599999999999</v>
       </c>
       <c r="N14">
-        <v>7224.799999999997</v>
+        <v>7224.8</v>
       </c>
       <c r="O14">
         <v>781.8</v>
@@ -2687,7 +2687,7 @@
         <v>81</v>
       </c>
       <c r="I15">
-        <v>67.99999999999999</v>
+        <v>68</v>
       </c>
       <c r="J15">
         <v>7.6</v>
@@ -2699,10 +2699,10 @@
         <v>6.7</v>
       </c>
       <c r="M15">
-        <v>61.29999999999998</v>
+        <v>61.3</v>
       </c>
       <c r="N15">
-        <v>74.69999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="O15">
         <v>13</v>
@@ -2776,7 +2776,7 @@
         <v>204.2</v>
       </c>
       <c r="M16">
-        <v>9917.800000000001</v>
+        <v>9917.799999999999</v>
       </c>
       <c r="N16">
         <v>10326.2</v>
@@ -2918,7 +2918,7 @@
         <v>1011</v>
       </c>
       <c r="I18">
-        <v>833.6000000000003</v>
+        <v>833.6</v>
       </c>
       <c r="J18">
         <v>16.2</v>
@@ -2930,10 +2930,10 @@
         <v>14.2</v>
       </c>
       <c r="M18">
-        <v>819.4000000000002</v>
+        <v>819.4</v>
       </c>
       <c r="N18">
-        <v>847.8000000000003</v>
+        <v>847.8000000000001</v>
       </c>
       <c r="O18">
         <v>177.4</v>
@@ -2992,7 +2992,7 @@
         <v>1285</v>
       </c>
       <c r="H19">
-        <v>1433</v>
+        <v>1497</v>
       </c>
       <c r="I19">
         <v>1242</v>
@@ -3013,16 +3013,16 @@
         <v>1288.5</v>
       </c>
       <c r="O19">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="P19">
         <v>46.5</v>
       </c>
       <c r="Q19">
-        <v>15.4</v>
+        <v>20.5</v>
       </c>
       <c r="R19">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S19" t="s">
         <v>71</v>
@@ -3037,10 +3037,10 @@
         <v>12166</v>
       </c>
       <c r="W19">
-        <v>1569.9</v>
+        <v>2096</v>
       </c>
       <c r="X19">
-        <v>382.3</v>
+        <v>382.2</v>
       </c>
       <c r="Y19" t="s">
         <v>155</v>
@@ -3072,7 +3072,7 @@
         <v>45695</v>
       </c>
       <c r="I20">
-        <v>39738.79999999999</v>
+        <v>39738.8</v>
       </c>
       <c r="J20">
         <v>357.9</v>
@@ -3084,10 +3084,10 @@
         <v>313.7</v>
       </c>
       <c r="M20">
-        <v>39425.09999999999</v>
+        <v>39425.10000000001</v>
       </c>
       <c r="N20">
-        <v>40052.49999999999</v>
+        <v>40052.5</v>
       </c>
       <c r="O20">
         <v>5956.2</v>
@@ -3146,7 +3146,7 @@
         <v>10930</v>
       </c>
       <c r="H21">
-        <v>11076</v>
+        <v>11078</v>
       </c>
       <c r="I21">
         <v>11346.2</v>
@@ -3167,7 +3167,7 @@
         <v>11523.6</v>
       </c>
       <c r="O21">
-        <v>-270.2</v>
+        <v>-268.2</v>
       </c>
       <c r="P21">
         <v>177.4</v>
@@ -3191,10 +3191,10 @@
         <v>138517</v>
       </c>
       <c r="W21">
-        <v>-195.1</v>
+        <v>-193.6</v>
       </c>
       <c r="X21">
-        <v>128.1</v>
+        <v>128</v>
       </c>
       <c r="Y21" t="s">
         <v>157</v>
@@ -3226,7 +3226,7 @@
         <v>113721</v>
       </c>
       <c r="I22">
-        <v>90389.59999999996</v>
+        <v>90389.60000000001</v>
       </c>
       <c r="J22">
         <v>2572</v>
@@ -3238,10 +3238,10 @@
         <v>2254.5</v>
       </c>
       <c r="M22">
-        <v>88135.09999999996</v>
+        <v>88135.10000000001</v>
       </c>
       <c r="N22">
-        <v>92644.09999999996</v>
+        <v>92644.10000000001</v>
       </c>
       <c r="O22">
         <v>23331.4</v>
@@ -3380,7 +3380,7 @@
         <v>63785</v>
       </c>
       <c r="I24">
-        <v>54289.59999999998</v>
+        <v>54289.6</v>
       </c>
       <c r="J24">
         <v>1184</v>
@@ -3392,10 +3392,10 @@
         <v>1037.8</v>
       </c>
       <c r="M24">
-        <v>53251.79999999997</v>
+        <v>53251.8</v>
       </c>
       <c r="N24">
-        <v>55327.39999999998</v>
+        <v>55327.4</v>
       </c>
       <c r="O24">
         <v>9495.4</v>
@@ -3472,7 +3472,7 @@
         <v>21023.5</v>
       </c>
       <c r="N25">
-        <v>21628.09999999999</v>
+        <v>21628.1</v>
       </c>
       <c r="O25">
         <v>1512.2</v>
@@ -3531,7 +3531,7 @@
         <v>10829</v>
       </c>
       <c r="H26">
-        <v>12831</v>
+        <v>12832</v>
       </c>
       <c r="I26">
         <v>11332.8</v>
@@ -3552,7 +3552,7 @@
         <v>11532.1</v>
       </c>
       <c r="O26">
-        <v>1498.2</v>
+        <v>1499.2</v>
       </c>
       <c r="P26">
         <v>199.3</v>
@@ -3576,7 +3576,7 @@
         <v>124794</v>
       </c>
       <c r="W26">
-        <v>1200.5</v>
+        <v>1201.3</v>
       </c>
       <c r="X26">
         <v>159.7</v>
@@ -3608,7 +3608,7 @@
         <v>5520</v>
       </c>
       <c r="H27">
-        <v>7327</v>
+        <v>7326</v>
       </c>
       <c r="I27">
         <v>5485.4</v>
@@ -3629,7 +3629,7 @@
         <v>5596.099999999999</v>
       </c>
       <c r="O27">
-        <v>1841.6</v>
+        <v>1840.6</v>
       </c>
       <c r="P27">
         <v>110.7</v>
@@ -3653,10 +3653,10 @@
         <v>74611</v>
       </c>
       <c r="W27">
-        <v>2468.3</v>
+        <v>2466.9</v>
       </c>
       <c r="X27">
-        <v>148.3</v>
+        <v>148.4</v>
       </c>
       <c r="Y27" t="s">
         <v>163</v>
@@ -3762,10 +3762,10 @@
         <v>23773</v>
       </c>
       <c r="H29">
-        <v>27575</v>
+        <v>27576</v>
       </c>
       <c r="I29">
-        <v>25203.79999999999</v>
+        <v>25203.8</v>
       </c>
       <c r="J29">
         <v>559.1</v>
@@ -3777,13 +3777,13 @@
         <v>490.1</v>
       </c>
       <c r="M29">
-        <v>24713.69999999999</v>
+        <v>24713.7</v>
       </c>
       <c r="N29">
-        <v>25693.89999999999</v>
+        <v>25693.9</v>
       </c>
       <c r="O29">
-        <v>2371.2</v>
+        <v>2372.2</v>
       </c>
       <c r="P29">
         <v>490.1</v>
@@ -3807,10 +3807,10 @@
         <v>314449</v>
       </c>
       <c r="W29">
-        <v>754.1</v>
+        <v>754.4</v>
       </c>
       <c r="X29">
-        <v>155.8</v>
+        <v>155.9</v>
       </c>
       <c r="Y29" t="s">
         <v>165</v>
@@ -4006,10 +4006,10 @@
         <v>20468</v>
       </c>
       <c r="H3">
-        <v>26690</v>
+        <v>26689</v>
       </c>
       <c r="I3">
-        <v>20549.60000000001</v>
+        <v>20549.6</v>
       </c>
       <c r="J3">
         <v>330.1</v>
@@ -4021,13 +4021,13 @@
         <v>289.3</v>
       </c>
       <c r="M3">
-        <v>20260.30000000001</v>
+        <v>20260.3</v>
       </c>
       <c r="N3">
-        <v>20838.90000000001</v>
+        <v>20838.9</v>
       </c>
       <c r="O3">
-        <v>6140.4</v>
+        <v>6139.4</v>
       </c>
       <c r="P3">
         <v>289.3</v>
@@ -4051,10 +4051,10 @@
         <v>238790</v>
       </c>
       <c r="W3">
-        <v>2571.5</v>
+        <v>2571</v>
       </c>
       <c r="X3">
-        <v>121.1</v>
+        <v>121.2</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4086,7 +4086,7 @@
         <v>17289</v>
       </c>
       <c r="I4">
-        <v>14730.59999999999</v>
+        <v>14730.6</v>
       </c>
       <c r="J4">
         <v>363.7</v>
@@ -4101,7 +4101,7 @@
         <v>14411.8</v>
       </c>
       <c r="N4">
-        <v>15049.39999999999</v>
+        <v>15049.4</v>
       </c>
       <c r="O4">
         <v>2558.4</v>
@@ -4163,7 +4163,7 @@
         <v>9093</v>
       </c>
       <c r="I5">
-        <v>7484.799999999997</v>
+        <v>7484.8</v>
       </c>
       <c r="J5">
         <v>127.4</v>
@@ -4175,10 +4175,10 @@
         <v>111.7</v>
       </c>
       <c r="M5">
-        <v>7373.099999999998</v>
+        <v>7373.1</v>
       </c>
       <c r="N5">
-        <v>7596.499999999997</v>
+        <v>7596.5</v>
       </c>
       <c r="O5">
         <v>1608.2</v>
@@ -4237,7 +4237,7 @@
         <v>15270</v>
       </c>
       <c r="H6">
-        <v>19770</v>
+        <v>19771</v>
       </c>
       <c r="I6">
         <v>15178.2</v>
@@ -4258,7 +4258,7 @@
         <v>15436.9</v>
       </c>
       <c r="O6">
-        <v>4591.8</v>
+        <v>4592.8</v>
       </c>
       <c r="P6">
         <v>258.7</v>
@@ -4282,7 +4282,7 @@
         <v>145542</v>
       </c>
       <c r="W6">
-        <v>3155</v>
+        <v>3155.7</v>
       </c>
       <c r="X6">
         <v>177.7</v>
@@ -4317,7 +4317,7 @@
         <v>10400</v>
       </c>
       <c r="I7">
-        <v>9380.600000000002</v>
+        <v>9380.6</v>
       </c>
       <c r="J7">
         <v>326.2</v>
@@ -4329,10 +4329,10 @@
         <v>285.9</v>
       </c>
       <c r="M7">
-        <v>9094.700000000003</v>
+        <v>9094.700000000001</v>
       </c>
       <c r="N7">
-        <v>9666.500000000002</v>
+        <v>9666.5</v>
       </c>
       <c r="O7">
         <v>1019.4</v>
@@ -4391,10 +4391,10 @@
         <v>1819</v>
       </c>
       <c r="H8">
-        <v>2058</v>
+        <v>2045</v>
       </c>
       <c r="I8">
-        <v>1787.199999999999</v>
+        <v>1787.2</v>
       </c>
       <c r="J8">
         <v>73.40000000000001</v>
@@ -4406,22 +4406,22 @@
         <v>64.3</v>
       </c>
       <c r="M8">
-        <v>1722.899999999999</v>
+        <v>1722.9</v>
       </c>
       <c r="N8">
-        <v>1851.499999999999</v>
+        <v>1851.5</v>
       </c>
       <c r="O8">
-        <v>270.8</v>
+        <v>257.8</v>
       </c>
       <c r="P8">
         <v>64.3</v>
       </c>
       <c r="Q8">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S8" t="s">
         <v>173</v>
@@ -4436,7 +4436,7 @@
         <v>19117</v>
       </c>
       <c r="W8">
-        <v>1416.5</v>
+        <v>1348.5</v>
       </c>
       <c r="X8">
         <v>336.4</v>
@@ -4471,7 +4471,7 @@
         <v>10250</v>
       </c>
       <c r="I9">
-        <v>9349.399999999998</v>
+        <v>9349.4</v>
       </c>
       <c r="J9">
         <v>260.6</v>
@@ -4483,10 +4483,10 @@
         <v>228.4</v>
       </c>
       <c r="M9">
-        <v>9120.999999999998</v>
+        <v>9121</v>
       </c>
       <c r="N9">
-        <v>9577.799999999997</v>
+        <v>9577.799999999999</v>
       </c>
       <c r="O9">
         <v>900.6</v>
@@ -4545,7 +4545,7 @@
         <v>117162</v>
       </c>
       <c r="H10">
-        <v>140555</v>
+        <v>140568</v>
       </c>
       <c r="I10">
         <v>118550.8</v>
@@ -4566,7 +4566,7 @@
         <v>119785.5</v>
       </c>
       <c r="O10">
-        <v>22004.2</v>
+        <v>22017.2</v>
       </c>
       <c r="P10">
         <v>1234.7</v>
@@ -4590,7 +4590,7 @@
         <v>1437067</v>
       </c>
       <c r="W10">
-        <v>1531.2</v>
+        <v>1532.1</v>
       </c>
       <c r="X10">
         <v>85.90000000000001</v>
@@ -4699,10 +4699,10 @@
         <v>13672</v>
       </c>
       <c r="H12">
-        <v>16507</v>
+        <v>16514</v>
       </c>
       <c r="I12">
-        <v>14316.40000000001</v>
+        <v>14316.4</v>
       </c>
       <c r="J12">
         <v>261.7</v>
@@ -4714,22 +4714,22 @@
         <v>229.4</v>
       </c>
       <c r="M12">
-        <v>14087.00000000001</v>
+        <v>14087</v>
       </c>
       <c r="N12">
         <v>14545.8</v>
       </c>
       <c r="O12">
-        <v>2190.6</v>
+        <v>2197.6</v>
       </c>
       <c r="P12">
         <v>229.4</v>
       </c>
       <c r="Q12">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="s">
         <v>177</v>
@@ -4744,10 +4744,10 @@
         <v>126832</v>
       </c>
       <c r="W12">
-        <v>1727.2</v>
+        <v>1732.7</v>
       </c>
       <c r="X12">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="Y12" t="s">
         <v>261</v>
@@ -4779,7 +4779,7 @@
         <v>441</v>
       </c>
       <c r="I13">
-        <v>475.9999999999999</v>
+        <v>476</v>
       </c>
       <c r="J13">
         <v>24.3</v>
@@ -4791,7 +4791,7 @@
         <v>21.3</v>
       </c>
       <c r="M13">
-        <v>454.6999999999999</v>
+        <v>454.7</v>
       </c>
       <c r="N13">
         <v>497.3</v>
@@ -4856,7 +4856,7 @@
         <v>3302</v>
       </c>
       <c r="I14">
-        <v>2885.799999999998</v>
+        <v>2885.8</v>
       </c>
       <c r="J14">
         <v>93.09999999999999</v>
@@ -4868,10 +4868,10 @@
         <v>81.59999999999999</v>
       </c>
       <c r="M14">
-        <v>2804.199999999998</v>
+        <v>2804.2</v>
       </c>
       <c r="N14">
-        <v>2967.399999999998</v>
+        <v>2967.4</v>
       </c>
       <c r="O14">
         <v>416.2</v>
@@ -4933,7 +4933,7 @@
         <v>70</v>
       </c>
       <c r="I15">
-        <v>42.00000000000001</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>6.4</v>
@@ -4945,10 +4945,10 @@
         <v>5.6</v>
       </c>
       <c r="M15">
-        <v>36.40000000000001</v>
+        <v>36.4</v>
       </c>
       <c r="N15">
-        <v>47.60000000000002</v>
+        <v>47.6</v>
       </c>
       <c r="O15">
         <v>28</v>
@@ -5010,7 +5010,7 @@
         <v>5482</v>
       </c>
       <c r="I16">
-        <v>4602.599999999999</v>
+        <v>4602.6</v>
       </c>
       <c r="J16">
         <v>45.9</v>
@@ -5022,10 +5022,10 @@
         <v>40.2</v>
       </c>
       <c r="M16">
-        <v>4562.399999999999</v>
+        <v>4562.400000000001</v>
       </c>
       <c r="N16">
-        <v>4642.799999999998</v>
+        <v>4642.8</v>
       </c>
       <c r="O16">
         <v>879.4</v>
@@ -5087,7 +5087,7 @@
         <v>942</v>
       </c>
       <c r="I17">
-        <v>753.9999999999999</v>
+        <v>754</v>
       </c>
       <c r="J17">
         <v>31.2</v>
@@ -5099,10 +5099,10 @@
         <v>27.3</v>
       </c>
       <c r="M17">
-        <v>726.6999999999999</v>
+        <v>726.7</v>
       </c>
       <c r="N17">
-        <v>781.2999999999998</v>
+        <v>781.3</v>
       </c>
       <c r="O17">
         <v>188</v>
@@ -5164,7 +5164,7 @@
         <v>733</v>
       </c>
       <c r="I18">
-        <v>591.0000000000002</v>
+        <v>591</v>
       </c>
       <c r="J18">
         <v>30.6</v>
@@ -5176,10 +5176,10 @@
         <v>26.8</v>
       </c>
       <c r="M18">
-        <v>564.2000000000003</v>
+        <v>564.2</v>
       </c>
       <c r="N18">
-        <v>617.8000000000002</v>
+        <v>617.8</v>
       </c>
       <c r="O18">
         <v>142</v>
@@ -5238,10 +5238,10 @@
         <v>899</v>
       </c>
       <c r="H19">
-        <v>1078</v>
+        <v>1132</v>
       </c>
       <c r="I19">
-        <v>858.6000000000005</v>
+        <v>858.6</v>
       </c>
       <c r="J19">
         <v>39.9</v>
@@ -5253,22 +5253,22 @@
         <v>35</v>
       </c>
       <c r="M19">
-        <v>823.6000000000005</v>
+        <v>823.6</v>
       </c>
       <c r="N19">
-        <v>893.6000000000005</v>
+        <v>893.6</v>
       </c>
       <c r="O19">
-        <v>219.4</v>
+        <v>273.4</v>
       </c>
       <c r="P19">
         <v>35</v>
       </c>
       <c r="Q19">
-        <v>25.6</v>
+        <v>31.8</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="S19" t="s">
         <v>184</v>
@@ -5283,7 +5283,7 @@
         <v>8073</v>
       </c>
       <c r="W19">
-        <v>2717.7</v>
+        <v>3386.6</v>
       </c>
       <c r="X19">
         <v>433.5</v>
@@ -5318,7 +5318,7 @@
         <v>35182</v>
       </c>
       <c r="I20">
-        <v>27720.99999999999</v>
+        <v>27721</v>
       </c>
       <c r="J20">
         <v>924.4</v>
@@ -5330,10 +5330,10 @@
         <v>810.3</v>
       </c>
       <c r="M20">
-        <v>26910.69999999999</v>
+        <v>26910.7</v>
       </c>
       <c r="N20">
-        <v>28531.29999999999</v>
+        <v>28531.3</v>
       </c>
       <c r="O20">
         <v>7461</v>
@@ -5389,40 +5389,40 @@
         <v>7602</v>
       </c>
       <c r="G21">
-        <v>7794</v>
+        <v>7795</v>
       </c>
       <c r="H21">
         <v>7988</v>
       </c>
       <c r="I21">
-        <v>7846.800000000004</v>
+        <v>7847</v>
       </c>
       <c r="J21">
-        <v>111</v>
+        <v>111.2</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="M21">
-        <v>7749.500000000004</v>
+        <v>7749.5</v>
       </c>
       <c r="N21">
-        <v>7944.100000000004</v>
+        <v>7944.5</v>
       </c>
       <c r="O21">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="P21">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="Q21">
         <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="s">
         <v>186</v>
@@ -5437,10 +5437,10 @@
         <v>87482</v>
       </c>
       <c r="W21">
-        <v>161.4</v>
+        <v>161.2</v>
       </c>
       <c r="X21">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="Y21" t="s">
         <v>270</v>
@@ -5472,7 +5472,7 @@
         <v>68144</v>
       </c>
       <c r="I22">
-        <v>49675.60000000001</v>
+        <v>49675.6</v>
       </c>
       <c r="J22">
         <v>1126.8</v>
@@ -5484,10 +5484,10 @@
         <v>987.7</v>
       </c>
       <c r="M22">
-        <v>48687.90000000002</v>
+        <v>48687.9</v>
       </c>
       <c r="N22">
-        <v>50663.30000000001</v>
+        <v>50663.3</v>
       </c>
       <c r="O22">
         <v>18468.4</v>
@@ -5626,7 +5626,7 @@
         <v>42812</v>
       </c>
       <c r="I24">
-        <v>34146.80000000001</v>
+        <v>34146.8</v>
       </c>
       <c r="J24">
         <v>589.2</v>
@@ -5638,10 +5638,10 @@
         <v>516.5</v>
       </c>
       <c r="M24">
-        <v>33630.30000000001</v>
+        <v>33630.3</v>
       </c>
       <c r="N24">
-        <v>34663.30000000001</v>
+        <v>34663.3</v>
       </c>
       <c r="O24">
         <v>8665.200000000001</v>
@@ -5780,7 +5780,7 @@
         <v>7067</v>
       </c>
       <c r="I26">
-        <v>5830.999999999998</v>
+        <v>5831</v>
       </c>
       <c r="J26">
         <v>112.4</v>
@@ -5792,10 +5792,10 @@
         <v>98.5</v>
       </c>
       <c r="M26">
-        <v>5732.499999999998</v>
+        <v>5732.5</v>
       </c>
       <c r="N26">
-        <v>5929.499999999998</v>
+        <v>5929.5</v>
       </c>
       <c r="O26">
         <v>1236</v>
@@ -5854,10 +5854,10 @@
         <v>3086</v>
       </c>
       <c r="H27">
-        <v>4333</v>
+        <v>4330</v>
       </c>
       <c r="I27">
-        <v>3101.000000000001</v>
+        <v>3101</v>
       </c>
       <c r="J27">
         <v>109.8</v>
@@ -5869,19 +5869,19 @@
         <v>96.2</v>
       </c>
       <c r="M27">
-        <v>3004.800000000001</v>
+        <v>3004.8</v>
       </c>
       <c r="N27">
-        <v>3197.200000000001</v>
+        <v>3197.2</v>
       </c>
       <c r="O27">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="P27">
         <v>96.2</v>
       </c>
       <c r="Q27">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="R27">
         <v>4.2</v>
@@ -5899,10 +5899,10 @@
         <v>36422</v>
       </c>
       <c r="W27">
-        <v>3382.6</v>
+        <v>3374.3</v>
       </c>
       <c r="X27">
-        <v>264.1</v>
+        <v>264.2</v>
       </c>
       <c r="Y27" t="s">
         <v>276</v>
@@ -5931,10 +5931,10 @@
         <v>85212</v>
       </c>
       <c r="H28">
-        <v>110136</v>
+        <v>110137</v>
       </c>
       <c r="I28">
-        <v>87469.00000000006</v>
+        <v>87469</v>
       </c>
       <c r="J28">
         <v>743.4</v>
@@ -5946,13 +5946,13 @@
         <v>651.6</v>
       </c>
       <c r="M28">
-        <v>86817.40000000005</v>
+        <v>86817.39999999999</v>
       </c>
       <c r="N28">
-        <v>88120.60000000006</v>
+        <v>88120.60000000001</v>
       </c>
       <c r="O28">
-        <v>22667</v>
+        <v>22668</v>
       </c>
       <c r="P28">
         <v>651.6</v>
@@ -5976,7 +5976,7 @@
         <v>1068505</v>
       </c>
       <c r="W28">
-        <v>2121.4</v>
+        <v>2121.5</v>
       </c>
       <c r="X28">
         <v>61</v>
@@ -6011,7 +6011,7 @@
         <v>21721</v>
       </c>
       <c r="I29">
-        <v>18496.79999999999</v>
+        <v>18496.8</v>
       </c>
       <c r="J29">
         <v>171.3</v>
@@ -6023,10 +6023,10 @@
         <v>150.2</v>
       </c>
       <c r="M29">
-        <v>18346.59999999999</v>
+        <v>18346.6</v>
       </c>
       <c r="N29">
-        <v>18646.99999999999</v>
+        <v>18647</v>
       </c>
       <c r="O29">
         <v>3224.2</v>
@@ -6252,7 +6252,7 @@
         <v>50262</v>
       </c>
       <c r="H3">
-        <v>65219</v>
+        <v>65218</v>
       </c>
       <c r="I3">
         <v>50947.4</v>
@@ -6273,7 +6273,7 @@
         <v>51600.9</v>
       </c>
       <c r="O3">
-        <v>14271.6</v>
+        <v>14270.6</v>
       </c>
       <c r="P3">
         <v>653.5</v>
@@ -6297,7 +6297,7 @@
         <v>646969</v>
       </c>
       <c r="W3">
-        <v>2205.9</v>
+        <v>2205.8</v>
       </c>
       <c r="X3">
         <v>101</v>
@@ -6344,10 +6344,10 @@
         <v>757.3</v>
       </c>
       <c r="M4">
-        <v>36873.9</v>
+        <v>36873.89999999999</v>
       </c>
       <c r="N4">
-        <v>38388.50000000001</v>
+        <v>38388.5</v>
       </c>
       <c r="O4">
         <v>5199.8</v>
@@ -6483,10 +6483,10 @@
         <v>40578</v>
       </c>
       <c r="H6">
-        <v>50988</v>
+        <v>50992</v>
       </c>
       <c r="I6">
-        <v>40959.20000000002</v>
+        <v>40959.2</v>
       </c>
       <c r="J6">
         <v>767</v>
@@ -6498,13 +6498,13 @@
         <v>672.3</v>
       </c>
       <c r="M6">
-        <v>40286.90000000002</v>
+        <v>40286.89999999999</v>
       </c>
       <c r="N6">
-        <v>41631.50000000002</v>
+        <v>41631.5</v>
       </c>
       <c r="O6">
-        <v>10028.8</v>
+        <v>10032.8</v>
       </c>
       <c r="P6">
         <v>672.3</v>
@@ -6528,7 +6528,7 @@
         <v>432907</v>
       </c>
       <c r="W6">
-        <v>2316.6</v>
+        <v>2317.5</v>
       </c>
       <c r="X6">
         <v>155.3</v>
@@ -6563,7 +6563,7 @@
         <v>23679</v>
       </c>
       <c r="I7">
-        <v>22315.99999999999</v>
+        <v>22316</v>
       </c>
       <c r="J7">
         <v>427.7</v>
@@ -6575,10 +6575,10 @@
         <v>374.9</v>
       </c>
       <c r="M7">
-        <v>21941.09999999999</v>
+        <v>21941.1</v>
       </c>
       <c r="N7">
-        <v>22690.89999999999</v>
+        <v>22690.9</v>
       </c>
       <c r="O7">
         <v>1363</v>
@@ -6637,10 +6637,10 @@
         <v>6067</v>
       </c>
       <c r="H8">
-        <v>6697</v>
+        <v>6660</v>
       </c>
       <c r="I8">
-        <v>5971.200000000003</v>
+        <v>5971.2</v>
       </c>
       <c r="J8">
         <v>169.8</v>
@@ -6652,22 +6652,22 @@
         <v>148.8</v>
       </c>
       <c r="M8">
-        <v>5822.400000000003</v>
+        <v>5822.4</v>
       </c>
       <c r="N8">
-        <v>6120.000000000004</v>
+        <v>6120</v>
       </c>
       <c r="O8">
-        <v>725.8</v>
+        <v>688.8</v>
       </c>
       <c r="P8">
         <v>148.8</v>
       </c>
       <c r="Q8">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="R8">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S8" t="s">
         <v>286</v>
@@ -6682,10 +6682,10 @@
         <v>74717</v>
       </c>
       <c r="W8">
-        <v>971.4</v>
+        <v>921.9</v>
       </c>
       <c r="X8">
-        <v>199.2</v>
+        <v>199.1</v>
       </c>
       <c r="Y8" t="s">
         <v>369</v>
@@ -6791,7 +6791,7 @@
         <v>290224</v>
       </c>
       <c r="H10">
-        <v>342316</v>
+        <v>342343</v>
       </c>
       <c r="I10">
         <v>293292.2</v>
@@ -6806,13 +6806,13 @@
         <v>2877.7</v>
       </c>
       <c r="M10">
-        <v>290414.4999999999</v>
+        <v>290414.5</v>
       </c>
       <c r="N10">
         <v>296169.9</v>
       </c>
       <c r="O10">
-        <v>49023.8</v>
+        <v>49050.8</v>
       </c>
       <c r="P10">
         <v>2877.7</v>
@@ -6836,7 +6836,7 @@
         <v>4032404</v>
       </c>
       <c r="W10">
-        <v>1215.7</v>
+        <v>1216.4</v>
       </c>
       <c r="X10">
         <v>71.40000000000001</v>
@@ -6871,7 +6871,7 @@
         <v>67240</v>
       </c>
       <c r="I11">
-        <v>60455.00000000003</v>
+        <v>60455</v>
       </c>
       <c r="J11">
         <v>1636.7</v>
@@ -6883,10 +6883,10 @@
         <v>1434.6</v>
       </c>
       <c r="M11">
-        <v>59020.40000000003</v>
+        <v>59020.4</v>
       </c>
       <c r="N11">
-        <v>61889.60000000003</v>
+        <v>61889.6</v>
       </c>
       <c r="O11">
         <v>6785</v>
@@ -6945,10 +6945,10 @@
         <v>41567</v>
       </c>
       <c r="H12">
-        <v>49181</v>
+        <v>49208</v>
       </c>
       <c r="I12">
-        <v>42975.40000000001</v>
+        <v>42975.4</v>
       </c>
       <c r="J12">
         <v>708.1</v>
@@ -6960,19 +6960,19 @@
         <v>620.7</v>
       </c>
       <c r="M12">
-        <v>42354.70000000001</v>
+        <v>42354.7</v>
       </c>
       <c r="N12">
-        <v>43596.10000000001</v>
+        <v>43596.1</v>
       </c>
       <c r="O12">
-        <v>6205.6</v>
+        <v>6232.6</v>
       </c>
       <c r="P12">
         <v>620.7</v>
       </c>
       <c r="Q12">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="R12">
         <v>1.6</v>
@@ -6990,7 +6990,7 @@
         <v>431187</v>
       </c>
       <c r="W12">
-        <v>1439.2</v>
+        <v>1445.5</v>
       </c>
       <c r="X12">
         <v>143.9</v>
@@ -7102,7 +7102,7 @@
         <v>11192</v>
       </c>
       <c r="I14">
-        <v>9993.999999999998</v>
+        <v>9994</v>
       </c>
       <c r="J14">
         <v>200.3</v>
@@ -7114,7 +7114,7 @@
         <v>175.6</v>
       </c>
       <c r="M14">
-        <v>9818.399999999998</v>
+        <v>9818.4</v>
       </c>
       <c r="N14">
         <v>10169.6</v>
@@ -7333,7 +7333,7 @@
         <v>2208</v>
       </c>
       <c r="I17">
-        <v>1829.200000000001</v>
+        <v>1829.2</v>
       </c>
       <c r="J17">
         <v>72.2</v>
@@ -7345,7 +7345,7 @@
         <v>63.3</v>
       </c>
       <c r="M17">
-        <v>1765.900000000001</v>
+        <v>1765.9</v>
       </c>
       <c r="N17">
         <v>1892.5</v>
@@ -7410,7 +7410,7 @@
         <v>1744</v>
       </c>
       <c r="I18">
-        <v>1424.600000000001</v>
+        <v>1424.6</v>
       </c>
       <c r="J18">
         <v>42.3</v>
@@ -7422,10 +7422,10 @@
         <v>37.1</v>
       </c>
       <c r="M18">
-        <v>1387.500000000001</v>
+        <v>1387.5</v>
       </c>
       <c r="N18">
-        <v>1461.700000000001</v>
+        <v>1461.7</v>
       </c>
       <c r="O18">
         <v>319.4</v>
@@ -7484,10 +7484,10 @@
         <v>2184</v>
       </c>
       <c r="H19">
-        <v>2511</v>
+        <v>2629</v>
       </c>
       <c r="I19">
-        <v>2100.599999999999</v>
+        <v>2100.6</v>
       </c>
       <c r="J19">
         <v>82.40000000000001</v>
@@ -7499,22 +7499,22 @@
         <v>72.2</v>
       </c>
       <c r="M19">
-        <v>2028.399999999999</v>
+        <v>2028.4</v>
       </c>
       <c r="N19">
-        <v>2172.799999999999</v>
+        <v>2172.8</v>
       </c>
       <c r="O19">
-        <v>410.4</v>
+        <v>528.4</v>
       </c>
       <c r="P19">
         <v>72.2</v>
       </c>
       <c r="Q19">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="R19">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="S19" t="s">
         <v>297</v>
@@ -7529,7 +7529,7 @@
         <v>20239</v>
       </c>
       <c r="W19">
-        <v>2027.8</v>
+        <v>2610.8</v>
       </c>
       <c r="X19">
         <v>356.7</v>
@@ -7564,7 +7564,7 @@
         <v>80877</v>
       </c>
       <c r="I20">
-        <v>67459.59999999999</v>
+        <v>67459.60000000001</v>
       </c>
       <c r="J20">
         <v>1233.5</v>
@@ -7576,10 +7576,10 @@
         <v>1081.2</v>
       </c>
       <c r="M20">
-        <v>66378.39999999999</v>
+        <v>66378.40000000001</v>
       </c>
       <c r="N20">
-        <v>68540.79999999999</v>
+        <v>68540.8</v>
       </c>
       <c r="O20">
         <v>13417.4</v>
@@ -7635,13 +7635,13 @@
         <v>18531</v>
       </c>
       <c r="G21">
-        <v>18724</v>
+        <v>18725</v>
       </c>
       <c r="H21">
-        <v>19064</v>
+        <v>19066</v>
       </c>
       <c r="I21">
-        <v>19193</v>
+        <v>19193.2</v>
       </c>
       <c r="J21">
         <v>264.5</v>
@@ -7653,13 +7653,13 @@
         <v>231.8</v>
       </c>
       <c r="M21">
-        <v>18961.2</v>
+        <v>18961.4</v>
       </c>
       <c r="N21">
-        <v>19424.8</v>
+        <v>19425</v>
       </c>
       <c r="O21">
-        <v>-129</v>
+        <v>-127.2</v>
       </c>
       <c r="P21">
         <v>231.8</v>
@@ -7668,7 +7668,7 @@
         <v>-0.7</v>
       </c>
       <c r="R21">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="S21" t="s">
         <v>299</v>
@@ -7683,7 +7683,7 @@
         <v>225999</v>
       </c>
       <c r="W21">
-        <v>-57.1</v>
+        <v>-56.3</v>
       </c>
       <c r="X21">
         <v>102.6</v>
@@ -7718,7 +7718,7 @@
         <v>181865</v>
       </c>
       <c r="I22">
-        <v>140065.2000000001</v>
+        <v>140065.2</v>
       </c>
       <c r="J22">
         <v>3684.2</v>
@@ -7730,10 +7730,10 @@
         <v>3229.3</v>
       </c>
       <c r="M22">
-        <v>136835.9000000001</v>
+        <v>136835.9</v>
       </c>
       <c r="N22">
-        <v>143294.5000000001</v>
+        <v>143294.5</v>
       </c>
       <c r="O22">
         <v>41799.8</v>
@@ -7795,7 +7795,7 @@
         <v>61741</v>
       </c>
       <c r="I23">
-        <v>51183.80000000003</v>
+        <v>51183.8</v>
       </c>
       <c r="J23">
         <v>1470.8</v>
@@ -7807,10 +7807,10 @@
         <v>1289.2</v>
       </c>
       <c r="M23">
-        <v>49894.60000000003</v>
+        <v>49894.60000000001</v>
       </c>
       <c r="N23">
-        <v>52473.00000000003</v>
+        <v>52473</v>
       </c>
       <c r="O23">
         <v>10557.2</v>
@@ -7949,7 +7949,7 @@
         <v>38772</v>
       </c>
       <c r="I25">
-        <v>35325.99999999998</v>
+        <v>35326</v>
       </c>
       <c r="J25">
         <v>523.7</v>
@@ -7961,10 +7961,10 @@
         <v>459</v>
       </c>
       <c r="M25">
-        <v>34866.99999999998</v>
+        <v>34867</v>
       </c>
       <c r="N25">
-        <v>35784.99999999998</v>
+        <v>35785</v>
       </c>
       <c r="O25">
         <v>3446</v>
@@ -8023,10 +8023,10 @@
         <v>16409</v>
       </c>
       <c r="H26">
-        <v>19898</v>
+        <v>19899</v>
       </c>
       <c r="I26">
-        <v>17163.79999999999</v>
+        <v>17163.8</v>
       </c>
       <c r="J26">
         <v>334.4</v>
@@ -8038,13 +8038,13 @@
         <v>293.1</v>
       </c>
       <c r="M26">
-        <v>16870.69999999999</v>
+        <v>16870.7</v>
       </c>
       <c r="N26">
-        <v>17456.89999999999</v>
+        <v>17456.9</v>
       </c>
       <c r="O26">
-        <v>2734.2</v>
+        <v>2735.2</v>
       </c>
       <c r="P26">
         <v>293.1</v>
@@ -8068,7 +8068,7 @@
         <v>179513</v>
       </c>
       <c r="W26">
-        <v>1523.1</v>
+        <v>1523.7</v>
       </c>
       <c r="X26">
         <v>163.3</v>
@@ -8100,10 +8100,10 @@
         <v>8606</v>
       </c>
       <c r="H27">
-        <v>11660</v>
+        <v>11656</v>
       </c>
       <c r="I27">
-        <v>8586.399999999996</v>
+        <v>8586.4</v>
       </c>
       <c r="J27">
         <v>202</v>
@@ -8115,19 +8115,19 @@
         <v>177.1</v>
       </c>
       <c r="M27">
-        <v>8409.299999999996</v>
+        <v>8409.299999999999</v>
       </c>
       <c r="N27">
-        <v>8763.499999999996</v>
+        <v>8763.5</v>
       </c>
       <c r="O27">
-        <v>3073.6</v>
+        <v>3069.6</v>
       </c>
       <c r="P27">
         <v>177.1</v>
       </c>
       <c r="Q27">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="R27">
         <v>2.7</v>
@@ -8145,7 +8145,7 @@
         <v>111033</v>
       </c>
       <c r="W27">
-        <v>2768.2</v>
+        <v>2764.6</v>
       </c>
       <c r="X27">
         <v>159.5</v>
@@ -8177,7 +8177,7 @@
         <v>202597</v>
       </c>
       <c r="H28">
-        <v>261514</v>
+        <v>261515</v>
       </c>
       <c r="I28">
         <v>208710</v>
@@ -8198,7 +8198,7 @@
         <v>209959.5</v>
       </c>
       <c r="O28">
-        <v>52804</v>
+        <v>52805</v>
       </c>
       <c r="P28">
         <v>1249.5</v>
@@ -8254,10 +8254,10 @@
         <v>41717</v>
       </c>
       <c r="H29">
-        <v>49296</v>
+        <v>49297</v>
       </c>
       <c r="I29">
-        <v>43700.59999999999</v>
+        <v>43700.6</v>
       </c>
       <c r="J29">
         <v>688.4</v>
@@ -8269,13 +8269,13 @@
         <v>603.4</v>
       </c>
       <c r="M29">
-        <v>43097.19999999999</v>
+        <v>43097.2</v>
       </c>
       <c r="N29">
-        <v>44303.99999999999</v>
+        <v>44304</v>
       </c>
       <c r="O29">
-        <v>5595.4</v>
+        <v>5596.4</v>
       </c>
       <c r="P29">
         <v>603.4</v>
@@ -8299,7 +8299,7 @@
         <v>522133</v>
       </c>
       <c r="W29">
-        <v>1071.6</v>
+        <v>1071.8</v>
       </c>
       <c r="X29">
         <v>115.6</v>
